--- a/Company Sentiments.xlsx
+++ b/Company Sentiments.xlsx
@@ -13,29 +13,30 @@
   </bookViews>
   <sheets>
     <sheet name="Overall Linkedin Sentiments" sheetId="4" r:id="rId1"/>
-    <sheet name="GMSentimentsLinkedin" sheetId="7" r:id="rId2"/>
-    <sheet name="ToyotaSentimentsLinkedin" sheetId="5" r:id="rId3"/>
-    <sheet name="Honda Sentiments" sheetId="1" r:id="rId4"/>
-    <sheet name="NissanSentimentsLinkedin" sheetId="8" r:id="rId5"/>
-    <sheet name="Ford Sentiments" sheetId="2" r:id="rId6"/>
-    <sheet name="Fiat Sentiments" sheetId="3" r:id="rId7"/>
-    <sheet name="Volkswagen Sentiments" sheetId="6" r:id="rId8"/>
+    <sheet name="Review" sheetId="9" r:id="rId2"/>
+    <sheet name="GMSentimentsLinkedin" sheetId="7" r:id="rId3"/>
+    <sheet name="ToyotaSentimentsLinkedin" sheetId="5" r:id="rId4"/>
+    <sheet name="Honda Sentiments" sheetId="1" r:id="rId5"/>
+    <sheet name="NissanSentimentsLinkedin" sheetId="8" r:id="rId6"/>
+    <sheet name="Ford Sentiments" sheetId="2" r:id="rId7"/>
+    <sheet name="Fiat Sentiments" sheetId="3" r:id="rId8"/>
+    <sheet name="Volkswagen Sentiments" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Fiat Sentiments'!$A$2:$G$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Ford Sentiments'!$A$2:$M$471</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GMSentimentsLinkedin!$A$2:$F$795</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Honda Sentiments'!$A$2:$G$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NissanSentimentsLinkedin!$A$2:$F$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ToyotaSentimentsLinkedin!$A$2:$F$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Volkswagen Sentiments'!$A$2:$G$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Fiat Sentiments'!$A$2:$G$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Ford Sentiments'!$A$2:$M$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GMSentimentsLinkedin!$A$2:$F$795</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Honda Sentiments'!$A$2:$G$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NissanSentimentsLinkedin!$A$2:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ToyotaSentimentsLinkedin!$A$2:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Volkswagen Sentiments'!$A$2:$G$59</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="1207">
   <si>
     <t xml:space="preserve"> Review </t>
   </si>
@@ -3756,13 +3757,19 @@
     <t>Glassdoor</t>
   </si>
   <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>AutoTrader</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
-    <t>General Motors</t>
-  </si>
-  <si>
-    <t>AutoTrader</t>
+    <t>News</t>
   </si>
 </sst>
 </file>
@@ -4333,7 +4340,7 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4378,13 +4385,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6739,10 +6747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J4:U55"/>
+  <dimension ref="J4:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6773,7 +6781,7 @@
         <v>250</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="10:16" x14ac:dyDescent="0.25">
@@ -6803,7 +6811,7 @@
     </row>
     <row r="6" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J6" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K6" s="2">
         <f>GMSentimentsLinkedin!G3</f>
@@ -6981,7 +6989,7 @@
         <v>250</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="10:21" x14ac:dyDescent="0.25">
@@ -7002,7 +7010,7 @@
     </row>
     <row r="20" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J20" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K20" s="18">
         <v>0.33500000000000002</v>
@@ -7111,7 +7119,7 @@
         <v>250</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="37" spans="10:16" x14ac:dyDescent="0.25">
@@ -7139,7 +7147,7 @@
     </row>
     <row r="38" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J38" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K38" s="2">
         <v>0.45933000000000002</v>
@@ -7300,14 +7308,14 @@
         <v>250</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="49" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J49" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="24">
         <f>ROUND(0.669124242424243,4)</f>
         <v>0.66910000000000003</v>
       </c>
@@ -7316,14 +7324,14 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="50" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J50" s="14" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K50" s="26">
+        <v>1202</v>
+      </c>
+      <c r="K50" s="24">
         <v>0.67373999999999989</v>
       </c>
       <c r="L50" s="2"/>
@@ -7331,14 +7339,14 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="51" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J51" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K51" s="26">
+      <c r="K51" s="24">
         <f>ROUND(0.714657692307692,4)</f>
         <v>0.7147</v>
       </c>
@@ -7347,14 +7355,14 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="52" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J52" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="24">
         <f>ROUND(0.503048571428571,4)</f>
         <v>0.503</v>
       </c>
@@ -7363,14 +7371,14 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="53" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J53" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="24">
         <f>ROUND(0.582008333333333,4)</f>
         <v>0.58199999999999996</v>
       </c>
@@ -7379,14 +7387,14 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="54" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J54" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="24">
         <f>ROUND(0.689226315789473,4)</f>
         <v>0.68920000000000003</v>
       </c>
@@ -7395,14 +7403,14 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="55" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J55" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="24">
         <f>ROUND(0.636227027027027,4)</f>
         <v>0.63619999999999999</v>
       </c>
@@ -7411,7 +7419,133 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="58" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K58" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P58" s="23" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="59" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J59" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="K59" s="24">
+        <v>0.1016</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="60" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J60" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K60" s="24">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="61" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J61" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="K61" s="24">
+        <v>-0.10349999999999999</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="62" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J62" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="K62" s="24">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="63" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J63" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="K63" s="27">
+        <v>0.108</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="64" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J64" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="K64" s="24">
+        <f>ROUND(0.689226315789473,4)</f>
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J65" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K65" s="24">
+        <v>0.1419</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2" t="s">
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -7423,10 +7557,7993 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F794"/>
+  <sheetViews>
+    <sheetView topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="E795" sqref="E795"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F359" s="1"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F360" s="1"/>
+    </row>
+    <row r="361" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F365" s="1"/>
+    </row>
+    <row r="366" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F366" s="1"/>
+    </row>
+    <row r="367" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F367" s="1"/>
+    </row>
+    <row r="368" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F373" s="1"/>
+    </row>
+    <row r="374" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F374" s="1"/>
+    </row>
+    <row r="375" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F379" s="1"/>
+    </row>
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F380" s="1"/>
+    </row>
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F385" s="1"/>
+    </row>
+    <row r="386" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F391" s="1"/>
+    </row>
+    <row r="392" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F396" s="1"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F401" s="1"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F405" s="1"/>
+    </row>
+    <row r="406" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F406" s="1"/>
+    </row>
+    <row r="407" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F411" s="1"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F416" s="1"/>
+    </row>
+    <row r="417" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F421" s="1"/>
+    </row>
+    <row r="422" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F426" s="1"/>
+    </row>
+    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F431" s="1"/>
+    </row>
+    <row r="432" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F432" s="1"/>
+    </row>
+    <row r="433" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F433" s="1"/>
+    </row>
+    <row r="434" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F438" s="1"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F439" s="1"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F440" s="1"/>
+    </row>
+    <row r="441" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F443" s="1"/>
+    </row>
+    <row r="444" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F444" s="1"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F448" s="1"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F449" s="1"/>
+    </row>
+    <row r="450" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F454" s="1"/>
+    </row>
+    <row r="455" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F460" s="1"/>
+    </row>
+    <row r="461" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F465" s="1"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F466" s="1"/>
+    </row>
+    <row r="467" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A615" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A619" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A625" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A629" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A633" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A639" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A649" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A653" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7443,12 +15560,12 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -28181,12 +36298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30062,12 +38179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30992,12 +39109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31014,12 +39131,12 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -31781,12 +39898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M472"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36462,7 +44579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
@@ -37688,7 +45805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
@@ -37708,12 +45825,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">

--- a/Company Sentiments.xlsx
+++ b/Company Sentiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Social" sheetId="11" r:id="rId1"/>
@@ -23,11 +23,13 @@
     <sheet name="Volkswagen Sentiments" sheetId="6" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Company Internal'!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Fiat Sentiments'!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Ford Sentiments'!$A$2:$M$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">GMSentimentsLinkedin!$A$2:$F$795</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Honda Sentiments'!$A$2:$G$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">NissanSentimentsLinkedin!$A$2:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Social!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ToyotaSentimentsLinkedin!$A$2:$F$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Volkswagen Sentiments'!$A$2:$G$59</definedName>
   </definedNames>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5429" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="1239">
   <si>
     <t xml:space="preserve"> Review </t>
   </si>
@@ -3883,9 +3885,6 @@
   </si>
   <si>
     <t>Management View</t>
-  </si>
-  <si>
-    <t>Compensation</t>
   </si>
   <si>
     <t>Innovation</t>
@@ -6937,7 +6936,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6947,6 +6946,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6971,7 +6971,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1225</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1200</v>
@@ -7003,12 +7003,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -7017,7 +7019,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1225</v>
@@ -7033,7 +7035,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1200</v>
@@ -7049,12 +7051,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -7063,7 +7067,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1225</v>
@@ -7079,12 +7083,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -7093,12 +7099,14 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -7107,7 +7115,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1225</v>
@@ -7123,7 +7131,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1200</v>
@@ -7139,12 +7147,14 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -7153,7 +7163,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1225</v>
@@ -7169,7 +7179,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1200</v>
@@ -7185,12 +7195,14 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -7199,7 +7211,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1225</v>
@@ -7215,7 +7227,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1200</v>
@@ -7231,12 +7243,14 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -7245,7 +7259,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1225</v>
@@ -7261,7 +7275,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1200</v>
@@ -7277,12 +7291,14 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -7290,6 +7306,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16187,7 +16204,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1206</v>
@@ -16199,7 +16216,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1206</v>
@@ -16211,7 +16228,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1206</v>
@@ -16223,7 +16240,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1206</v>
@@ -16235,7 +16252,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1206</v>
@@ -16247,7 +16264,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1206</v>
@@ -16259,7 +16276,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1206</v>
@@ -16279,7 +16296,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16314,7 +16331,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1203</v>
@@ -16326,7 +16343,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1203</v>
@@ -16338,7 +16355,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1203</v>
@@ -16350,7 +16367,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1203</v>
@@ -16362,7 +16379,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1203</v>
@@ -16374,7 +16391,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1203</v>
@@ -16386,7 +16403,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1203</v>
@@ -16403,10 +16420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16440,123 +16457,163 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>0.99980000000000002</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99570000000000003</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.98199999999999998</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>1233</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>1234</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.99939999999999996</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>1234</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.94930000000000003</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.996</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -16565,22 +16622,30 @@
       <c r="B12" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -16589,58 +16654,78 @@
       <c r="B14" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>1236</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>1236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>1237</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
@@ -16649,132 +16734,65 @@
       <c r="B19" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>1229</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.99970000000000003</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.69969999999999999</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>1238</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16784,7 +16802,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16801,7 +16819,7 @@
         <v>1205</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1164</v>
@@ -16818,7 +16836,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1201</v>
@@ -16834,7 +16852,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1201</v>
@@ -16851,7 +16869,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1201</v>
@@ -16865,7 +16883,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1201</v>
@@ -16882,7 +16900,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1201</v>
@@ -16899,7 +16917,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1201</v>
@@ -16916,7 +16934,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1201</v>

--- a/Company Sentiments.xlsx
+++ b/Company Sentiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7515" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7515" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Social" sheetId="11" r:id="rId1"/>
@@ -32,12 +32,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ToyotaSentimentsLinkedin!$A$2:$F$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Volkswagen Sentiments'!$A$2:$G$59</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1239">
   <si>
     <t xml:space="preserve"> Review </t>
   </si>
@@ -3886,9 +3886,6 @@
     <t>Management View</t>
   </si>
   <si>
-    <t>Compensation</t>
-  </si>
-  <si>
     <t>Innovation</t>
   </si>
   <si>
@@ -3920,6 +3917,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -4552,10 +4552,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4572,11 +4570,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4647,2000 +4649,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>LinkedIn </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Sentiments</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Overall Linkedin Sentiments'!$J$5:$J$11</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Ford</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>General Motors</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fiat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Honda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Toyota</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Volkswagen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Nissan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overall Linkedin Sentiments'!$K$5:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.31609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64970000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32190000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50660000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46229999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-361E-43D5-8AB4-6A77104DF6FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="81678720"/>
-        <c:axId val="81681024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="81678720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81681024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="81681024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81678720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Twitter </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Sentiments</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Overall Linkedin Sentiments'!$J$19:$J$25</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Ford</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>General Motors</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fiat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Honda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Toyota</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Volkswagen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Nissan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overall Linkedin Sentiments'!$K$19:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.2369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.313</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14560000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-361E-43D5-8AB4-6A77104DF6FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="83608704"/>
-        <c:axId val="83633664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="83608704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83633664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83633664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83608704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Glassdoor</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Sentiments</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Overall Linkedin Sentiments'!$J$37:$J$43</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Ford</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>General Motors</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fiat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Honda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Toyota</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Volkswagen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Nissan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overall Linkedin Sentiments'!$K$37:$K$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.45129999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45933000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54879999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36930000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-361E-43D5-8AB4-6A77104DF6FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="105196928"/>
-        <c:axId val="106702336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="105196928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="106702336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="106702336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105196928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Auto Trader </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Sentiments</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Overall Linkedin Sentiments'!$J$49:$J$55</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Ford</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>General Motors</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fiat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Honda</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Toyota</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Volkswagen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Nissan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Overall Linkedin Sentiments'!$K$49:$K$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.66910000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67373999999999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.503</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68920000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63619999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-40ED-46C6-AF3A-270D030EFC99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="114673536"/>
-        <c:axId val="114675072"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="114673536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="114675072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="114675072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="114673536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD6DB4AF-5CAB-4980-A9E8-0FFFAB0B96F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6940,11 +4948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6957,28 +4964,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>1221</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>1222</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>1223</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1225</v>
@@ -6992,9 +4999,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1200</v>
@@ -7010,7 +5017,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1224</v>
@@ -7024,9 +5031,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1225</v>
@@ -7040,9 +5047,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1200</v>
@@ -7058,7 +5065,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1224</v>
@@ -7072,9 +5079,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1225</v>
@@ -7090,7 +5097,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1200</v>
@@ -7106,7 +5113,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1224</v>
@@ -7120,9 +5127,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1225</v>
@@ -7136,9 +5143,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1200</v>
@@ -7154,7 +5161,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1224</v>
@@ -7168,9 +5175,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1225</v>
@@ -7184,9 +5191,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1200</v>
@@ -7202,7 +5209,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1224</v>
@@ -7216,9 +5223,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1225</v>
@@ -7232,9 +5239,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1200</v>
@@ -7250,7 +5257,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1224</v>
@@ -7264,9 +5271,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1225</v>
@@ -7280,9 +5287,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1200</v>
@@ -7298,7 +5305,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1224</v>
@@ -7313,11 +5320,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F22">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16194,33 +14197,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>1226</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>1222</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>1223</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>1216</v>
       </c>
       <c r="D2" s="2"/>
@@ -16231,12 +14234,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>1.26E-2</v>
       </c>
       <c r="D3" s="2"/>
@@ -16247,7 +14250,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1206</v>
@@ -16263,12 +14266,12 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>1208</v>
       </c>
       <c r="D5" s="2"/>
@@ -16279,12 +14282,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>1212</v>
       </c>
       <c r="D6" s="2"/>
@@ -16295,12 +14298,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>5.16E-2</v>
       </c>
       <c r="D7" s="2"/>
@@ -16311,12 +14314,12 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>0.13400000000000001</v>
       </c>
       <c r="D8" s="2"/>
@@ -16343,39 +14346,39 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>1227</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>1222</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>1223</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <f>ROUND(0.669124242424243,4)</f>
         <v>0.66910000000000003</v>
       </c>
@@ -16387,12 +14390,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>0.67349999999999999</v>
       </c>
       <c r="D3" s="2"/>
@@ -16403,12 +14406,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f>ROUND(0.714657692307692,4)</f>
         <v>0.7147</v>
       </c>
@@ -16420,12 +14423,12 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>ROUND(0.503048571428571,4)</f>
         <v>0.503</v>
       </c>
@@ -16437,12 +14440,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f>ROUND(0.582008333333333,4)</f>
         <v>0.58199999999999996</v>
       </c>
@@ -16454,12 +14457,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f>ROUND(0.689226315789473,4)</f>
         <v>0.68920000000000003</v>
       </c>
@@ -16471,12 +14474,12 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f>ROUND(0.636227027027027,4)</f>
         <v>0.63619999999999999</v>
       </c>
@@ -16493,10 +14496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16510,28 +14513,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>1228</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>1222</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>1223</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1229</v>
@@ -16547,7 +14550,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1207</v>
@@ -16563,10 +14566,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C4" s="2">
         <v>0.98199999999999998</v>
@@ -16579,13 +14582,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16595,13 +14598,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16611,13 +14614,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -16627,7 +14630,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1229</v>
@@ -16643,7 +14646,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1207</v>
@@ -16659,10 +14662,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C10" s="2">
         <v>0.996</v>
@@ -16675,13 +14678,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -16691,13 +14694,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -16707,13 +14710,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -16723,13 +14726,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -16739,13 +14742,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -16755,13 +14758,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -16771,13 +14774,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -16787,13 +14790,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -16803,13 +14806,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -16819,7 +14822,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1229</v>
@@ -16835,7 +14838,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1207</v>
@@ -16851,65 +14854,17 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16936,28 +14891,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>1222</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>1223</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1201</v>
@@ -16973,7 +14928,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1201</v>
@@ -16990,7 +14945,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1201</v>
@@ -17006,7 +14961,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1201</v>
@@ -17023,7 +14978,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1201</v>
@@ -17040,7 +14995,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1201</v>
@@ -17057,7 +15012,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1201</v>
@@ -17079,987 +15034,981 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J4:U74"/>
+  <dimension ref="B4:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="10:16">
-      <c r="K4" s="15" t="s">
+    <row r="4" spans="2:13">
+      <c r="C4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="5" spans="10:16">
-      <c r="J5" s="14" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K5" s="2">
+      <c r="C5" s="32">
         <f>'Ford Sentiments'!G3</f>
         <v>0.31609999999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="D5" s="32">
         <f>'Ford Sentiments'!H3</f>
         <v>0.29920000000000002</v>
       </c>
-      <c r="M5" s="2">
+      <c r="E5" s="32">
         <f>'Ford Sentiments'!I3</f>
         <v>0.29120000000000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="F5" s="32">
         <f>'Ford Sentiments'!J3</f>
         <v>0.4259</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="6" spans="10:16">
-      <c r="J6" s="14" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="K6" s="2">
+      <c r="C6" s="32">
         <f>GMSentimentsLinkedin!G3</f>
         <v>0.64970000000000006</v>
       </c>
-      <c r="L6" s="2">
+      <c r="D6" s="32">
         <f>GMSentimentsLinkedin!H3</f>
         <v>0.60489999999999999</v>
       </c>
-      <c r="M6" s="2">
+      <c r="E6" s="32">
         <f>GMSentimentsLinkedin!I3</f>
         <v>0.65610000000000002</v>
       </c>
-      <c r="N6" s="2">
+      <c r="F6" s="32">
         <f>GMSentimentsLinkedin!J3</f>
         <v>0.66969999999999996</v>
       </c>
-      <c r="O6" s="2">
+      <c r="G6" s="32">
         <f>GMSentimentsLinkedin!K3</f>
         <v>0.67090000000000005</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="7" spans="10:16">
-      <c r="J7" s="14" t="s">
+      <c r="H6" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K7" s="2">
+      <c r="C7" s="32">
         <f>'Fiat Sentiments'!G3</f>
         <v>0.41039999999999999</v>
       </c>
-      <c r="L7" s="2">
+      <c r="D7" s="32">
         <f>'Fiat Sentiments'!H3</f>
         <v>0.66059999999999997</v>
       </c>
-      <c r="M7" s="2">
+      <c r="E7" s="32">
         <f>'Fiat Sentiments'!I3</f>
         <v>0.4017</v>
       </c>
-      <c r="N7" s="2">
+      <c r="F7" s="32">
         <f>'Fiat Sentiments'!J3</f>
         <v>0.2495</v>
       </c>
-      <c r="O7" s="2">
+      <c r="G7" s="32">
         <f>'Fiat Sentiments'!K3</f>
         <v>0.1986</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="8" spans="10:16">
-      <c r="J8" s="14" t="s">
+      <c r="H7" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K8" s="2">
+      <c r="C8" s="32">
         <f>'Honda Sentiments'!G3</f>
         <v>0.32190000000000002</v>
       </c>
-      <c r="L8" s="2">
+      <c r="D8" s="32">
         <f>'Honda Sentiments'!H3</f>
         <v>0.2954</v>
       </c>
-      <c r="M8" s="2">
+      <c r="E8" s="32">
         <f>'Honda Sentiments'!I3</f>
         <v>0.32669999999999999</v>
       </c>
-      <c r="N8" s="2">
+      <c r="F8" s="32">
         <f>'Honda Sentiments'!J3</f>
         <v>0.3347</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="9" spans="10:16">
-      <c r="J9" s="14" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="K9" s="2">
+      <c r="C9" s="32">
         <f>ToyotaSentimentsLinkedin!G3</f>
         <v>0.50660000000000005</v>
       </c>
-      <c r="L9" s="2">
+      <c r="D9" s="32">
         <f>ToyotaSentimentsLinkedin!H3</f>
         <v>0.48799999999999999</v>
       </c>
-      <c r="M9" s="2">
+      <c r="E9" s="32">
         <f>ToyotaSentimentsLinkedin!I3</f>
         <v>0.60860000000000003</v>
       </c>
-      <c r="N9" s="2">
+      <c r="F9" s="32">
         <f>ToyotaSentimentsLinkedin!J3</f>
         <v>0.48630000000000001</v>
       </c>
-      <c r="O9" s="2">
+      <c r="G9" s="32">
         <f>ToyotaSentimentsLinkedin!K3</f>
         <v>0.63360000000000005</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="10" spans="10:16">
-      <c r="J10" s="14" t="s">
+      <c r="H9" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K10" s="2">
+      <c r="C10" s="32">
         <f>'Volkswagen Sentiments'!G3</f>
         <v>0.56299999999999994</v>
       </c>
-      <c r="L10" s="2">
+      <c r="D10" s="32">
         <f>'Volkswagen Sentiments'!H3</f>
         <v>0.54159999999999997</v>
       </c>
-      <c r="M10" s="2">
+      <c r="E10" s="32">
         <f>'Volkswagen Sentiments'!I3</f>
         <v>0.72899999999999998</v>
       </c>
-      <c r="N10" s="2">
+      <c r="F10" s="32">
         <f>'Volkswagen Sentiments'!J3</f>
         <v>0.49199999999999999</v>
       </c>
-      <c r="O10" s="2">
+      <c r="G10" s="32">
         <f>'Volkswagen Sentiments'!K3</f>
         <v>0.37809999999999999</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="11" spans="10:16">
-      <c r="J11" s="14" t="s">
+      <c r="H10" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="K11" s="2">
+      <c r="C11" s="32">
         <f>NissanSentimentsLinkedin!G3</f>
         <v>0.46229999999999999</v>
       </c>
-      <c r="L11" s="2">
+      <c r="D11" s="32">
         <f>NissanSentimentsLinkedin!H3</f>
         <v>0.46839999999999993</v>
       </c>
-      <c r="M11" s="2">
+      <c r="E11" s="32">
         <f>NissanSentimentsLinkedin!I3</f>
         <v>0.4708</v>
       </c>
-      <c r="N11" s="2">
+      <c r="F11" s="32">
         <f>NissanSentimentsLinkedin!J3</f>
         <v>0.41720000000000002</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="18" spans="10:21">
-      <c r="J18" s="19"/>
-      <c r="K18" s="20" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="19" spans="10:21">
-      <c r="J19" s="17" t="s">
+    <row r="15" spans="2:13">
+      <c r="B15" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="K19" s="18">
+      <c r="C15" s="32">
         <v>0.2369</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="10:21">
-      <c r="J20" s="14" t="s">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="K20" s="18">
+      <c r="C16" s="32">
         <v>0.33500000000000002</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="10:21">
-      <c r="J21" s="14" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="10:21">
-      <c r="J22" s="17" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="K22" s="18">
+      <c r="C18" s="32">
         <v>0.313</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="10:21">
-      <c r="J23" s="17" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="K23" s="18">
+      <c r="C19" s="32">
         <v>0.21079999999999999</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="10:21">
-      <c r="J24" s="17" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="K24" s="18">
+      <c r="C20" s="32">
         <v>0.17419999999999999</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="10:21">
-      <c r="J25" s="17" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="17" t="s">
         <v>1198</v>
       </c>
-      <c r="K25" s="18">
+      <c r="C21" s="32">
         <v>0.14560000000000001</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="10:21">
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-    </row>
-    <row r="36" spans="10:16">
-      <c r="K36" s="15" t="s">
+    <row r="23" spans="2:8">
+      <c r="C23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36" s="4" t="s">
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="37" spans="10:16">
-      <c r="J37" s="14" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K37" s="2">
+      <c r="C24" s="32">
         <v>0.45129999999999998</v>
       </c>
-      <c r="L37" s="2">
+      <c r="D24" s="32">
         <v>0.34460000000000002</v>
       </c>
-      <c r="M37" s="2">
+      <c r="E24" s="32">
         <v>0.4672</v>
       </c>
-      <c r="N37" s="2">
+      <c r="F24" s="32">
         <v>0.44269999999999998</v>
       </c>
-      <c r="O37" s="2">
+      <c r="G24" s="32">
         <v>0.46939999999999998</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="38" spans="10:16">
-      <c r="J38" s="14" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="K38" s="2">
+      <c r="C25" s="32">
         <v>0.45933000000000002</v>
       </c>
-      <c r="L38" s="2">
+      <c r="D25" s="32">
         <f>ROUND(0.3828,4)</f>
         <v>0.38279999999999997</v>
       </c>
-      <c r="M38" s="2">
+      <c r="E25" s="32">
         <f>ROUND(0.424841614906832,4)</f>
         <v>0.42480000000000001</v>
       </c>
-      <c r="N38" s="2">
+      <c r="F25" s="32">
         <f>ROUND(0.441408227848101,4)</f>
         <v>0.44140000000000001</v>
       </c>
-      <c r="O38" s="2">
+      <c r="G25" s="32">
         <f>ROUND(0.413464566929134,4)</f>
         <v>0.41349999999999998</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="39" spans="10:16">
-      <c r="J39" s="14" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2" t="s">
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="40" spans="10:16">
-      <c r="J40" s="14" t="s">
+    <row r="27" spans="2:8">
+      <c r="B27" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K40" s="2">
+      <c r="C27" s="32">
         <v>0.50290000000000001</v>
       </c>
-      <c r="L40" s="2">
+      <c r="D27" s="32">
         <f>ROUND(0.676763636363636,4)</f>
         <v>0.67679999999999996</v>
       </c>
-      <c r="M40" s="2">
+      <c r="E27" s="32">
         <f>ROUND(0.318119047619048,4)</f>
         <v>0.31809999999999999</v>
       </c>
-      <c r="N40" s="2">
+      <c r="F27" s="32">
         <f>ROUND(0.196378260869565,4)</f>
         <v>0.19639999999999999</v>
       </c>
-      <c r="O40" s="2">
+      <c r="G27" s="32">
         <v>0.55409999999999993</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="41" spans="10:16">
-      <c r="J41" s="14" t="s">
+    <row r="28" spans="2:8">
+      <c r="B28" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="K41" s="2">
+      <c r="C28" s="32">
         <v>0.54879999999999995</v>
       </c>
-      <c r="L41" s="2">
+      <c r="D28" s="32">
         <f>ROUND(0.60645,4)</f>
         <v>0.60650000000000004</v>
       </c>
-      <c r="M41" s="2">
+      <c r="E28" s="32">
         <f>ROUND(0.494918181818182,4)</f>
         <v>0.49490000000000001</v>
       </c>
-      <c r="N41" s="2">
+      <c r="F28" s="32">
         <f>ROUND(0.566244,4)</f>
         <v>0.56620000000000004</v>
       </c>
-      <c r="O41" s="2">
+      <c r="G28" s="32">
         <f>ROUND(0.737293333333333,4)</f>
         <v>0.73729999999999996</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="42" spans="10:16">
-      <c r="J42" s="14" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K42" s="2">
+      <c r="C29" s="32">
         <v>0.40400000000000003</v>
       </c>
-      <c r="L42" s="2">
+      <c r="D29" s="32">
         <f>ROUND(0.236554545454545,4)</f>
         <v>0.2366</v>
       </c>
-      <c r="M42" s="2">
+      <c r="E29" s="32">
         <v>0.44880000000000003</v>
       </c>
-      <c r="N42" s="2">
+      <c r="F29" s="32">
         <f>ROUND(0.410175,4)</f>
         <v>0.41020000000000001</v>
       </c>
-      <c r="O42" s="2">
+      <c r="G29" s="32">
         <f>ROUND(0.323466666666667,4)</f>
         <v>0.32350000000000001</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="43" spans="10:16">
-      <c r="J43" s="14" t="s">
+    <row r="30" spans="2:8">
+      <c r="B30" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="K43" s="2">
+      <c r="C30" s="32">
         <v>0.36930000000000002</v>
       </c>
-      <c r="L43" s="2">
+      <c r="D30" s="32">
         <f>ROUND(0.516525806451613,4)</f>
         <v>0.51649999999999996</v>
       </c>
-      <c r="M43" s="2">
+      <c r="E30" s="32">
         <f>ROUND(0.378582142857143,4)</f>
         <v>0.37859999999999999</v>
       </c>
-      <c r="N43" s="2">
+      <c r="F30" s="32">
         <f>ROUND(0.470846666666667,4)</f>
         <v>0.4708</v>
       </c>
-      <c r="O43" s="2">
+      <c r="G30" s="32">
         <f>ROUND(0.164942857142857,4)</f>
         <v>0.16489999999999999</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="48" spans="10:16">
-      <c r="K48" s="15" t="s">
+    <row r="33" spans="2:8">
+      <c r="C33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P48" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="49" spans="10:16">
-      <c r="J49" s="14" t="s">
+    <row r="34" spans="2:8">
+      <c r="B34" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K49" s="24">
+      <c r="C34" s="32">
         <f>ROUND(0.669124242424243,4)</f>
         <v>0.66910000000000003</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="50" spans="10:16">
-      <c r="J50" s="14" t="s">
+    <row r="35" spans="2:8">
+      <c r="B35" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="K50" s="24">
+      <c r="C35" s="32">
         <v>0.67373999999999989</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="51" spans="10:16">
-      <c r="J51" s="14" t="s">
+    <row r="36" spans="2:8">
+      <c r="B36" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K51" s="24">
+      <c r="C36" s="32">
         <f>ROUND(0.714657692307692,4)</f>
         <v>0.7147</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="52" spans="10:16">
-      <c r="J52" s="14" t="s">
+    <row r="37" spans="2:8">
+      <c r="B37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K52" s="24">
+      <c r="C37" s="32">
         <f>ROUND(0.503048571428571,4)</f>
         <v>0.503</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2" t="s">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="53" spans="10:16">
-      <c r="J53" s="14" t="s">
+    <row r="38" spans="2:8">
+      <c r="B38" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="K53" s="24">
+      <c r="C38" s="32">
         <f>ROUND(0.582008333333333,4)</f>
         <v>0.58199999999999996</v>
       </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="54" spans="10:16">
-      <c r="J54" s="14" t="s">
+    <row r="39" spans="2:8">
+      <c r="B39" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K54" s="24">
+      <c r="C39" s="32">
         <f>ROUND(0.689226315789473,4)</f>
         <v>0.68920000000000003</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2" t="s">
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="55" spans="10:16">
-      <c r="J55" s="14" t="s">
+    <row r="40" spans="2:8">
+      <c r="B40" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="K55" s="24">
+      <c r="C40" s="32">
         <f>ROUND(0.636227027027027,4)</f>
         <v>0.63619999999999999</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2" t="s">
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="58" spans="10:16">
-      <c r="K58" s="28" t="s">
+    <row r="43" spans="2:8">
+      <c r="C43" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="L58" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" s="29" t="s">
+      <c r="D43" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="29" t="s">
+      <c r="F43" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="O58" s="29" t="s">
+      <c r="G43" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="P58" s="29" t="s">
+      <c r="H43" s="27" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="59" spans="10:16">
-      <c r="J59" s="27" t="s">
+    <row r="44" spans="2:8">
+      <c r="B44" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="K59" s="26">
+      <c r="C44" s="32">
         <v>0.1016</v>
       </c>
-      <c r="L59" s="26" t="s">
+      <c r="D44" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="M59" s="26" t="s">
+      <c r="E44" s="34" t="s">
         <v>1217</v>
       </c>
-      <c r="N59" s="26" t="s">
+      <c r="F44" s="34" t="s">
         <v>1218</v>
       </c>
-      <c r="O59" s="26" t="s">
+      <c r="G44" s="34" t="s">
         <v>1219</v>
       </c>
-      <c r="P59" s="30" t="s">
+      <c r="H44" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="60" spans="10:16">
-      <c r="J60" s="27" t="s">
+    <row r="45" spans="2:8">
+      <c r="B45" s="25" t="s">
         <v>1202</v>
       </c>
-      <c r="K60" s="26">
+      <c r="C45" s="32">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="L60" s="26">
+      <c r="D45" s="34">
         <v>1.26E-2</v>
       </c>
-      <c r="M60" s="26">
+      <c r="E45" s="34">
         <v>3.04E-2</v>
       </c>
-      <c r="N60" s="26">
+      <c r="F45" s="34">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="O60" s="26">
+      <c r="G45" s="34">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="P60" s="30" t="s">
+      <c r="H45" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="61" spans="10:16">
-      <c r="J61" s="27" t="s">
+    <row r="46" spans="2:8">
+      <c r="B46" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="K61" s="31">
+      <c r="C46" s="32">
         <v>-0.10349999999999999</v>
       </c>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="30" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="62" spans="10:16">
-      <c r="J62" s="27" t="s">
+    <row r="47" spans="2:8">
+      <c r="B47" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="K62" s="31">
+      <c r="C47" s="32">
         <v>0.19350000000000001</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="D47" s="34" t="s">
         <v>1208</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="E47" s="34" t="s">
         <v>1209</v>
       </c>
-      <c r="N62" s="30" t="s">
+      <c r="F47" s="34" t="s">
         <v>1210</v>
       </c>
-      <c r="O62" s="30" t="s">
+      <c r="G47" s="34" t="s">
         <v>1211</v>
       </c>
-      <c r="P62" s="30" t="s">
+      <c r="H47" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="63" spans="10:16">
-      <c r="J63" s="27" t="s">
+    <row r="48" spans="2:8">
+      <c r="B48" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="K63" s="31">
+      <c r="C48" s="32">
         <v>0.108</v>
       </c>
-      <c r="L63" s="30" t="s">
+      <c r="D48" s="34" t="s">
         <v>1212</v>
       </c>
-      <c r="M63" s="30" t="s">
+      <c r="E48" s="34" t="s">
         <v>1213</v>
       </c>
-      <c r="N63" s="30" t="s">
+      <c r="F48" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="O63" s="30" t="s">
+      <c r="G48" s="34" t="s">
         <v>1215</v>
       </c>
-      <c r="P63" s="30" t="s">
+      <c r="H48" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="64" spans="10:16">
-      <c r="J64" s="27" t="s">
+    <row r="49" spans="2:8">
+      <c r="B49" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="K64" s="31">
+      <c r="C49" s="32">
         <v>0.68920000000000003</v>
       </c>
-      <c r="L64" s="31">
+      <c r="D49" s="34">
         <v>5.16E-2</v>
       </c>
-      <c r="M64" s="31">
+      <c r="E49" s="34">
         <v>0.13600000000000001</v>
       </c>
-      <c r="N64" s="31">
+      <c r="F49" s="34">
         <v>0.56440000000000001</v>
       </c>
-      <c r="O64" s="32">
+      <c r="G49" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P64" s="30" t="s">
+      <c r="H49" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="65" spans="10:16">
-      <c r="J65" s="27" t="s">
+    <row r="50" spans="2:8">
+      <c r="B50" s="25" t="s">
         <v>1198</v>
       </c>
-      <c r="K65" s="31">
+      <c r="C50" s="32">
         <v>0.1419</v>
       </c>
-      <c r="L65" s="31">
+      <c r="D50" s="34">
         <v>0.13400000000000001</v>
       </c>
-      <c r="M65" s="31">
+      <c r="E50" s="34">
         <v>0.21659999999999999</v>
       </c>
-      <c r="N65" s="31" t="s">
+      <c r="F50" s="34" t="s">
         <v>1220</v>
       </c>
-      <c r="O65" s="31">
+      <c r="G50" s="34">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P65" s="30" t="s">
+      <c r="H50" s="33" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="67" spans="10:16">
-      <c r="K67" s="15" t="s">
+    <row r="52" spans="2:8">
+      <c r="C52" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M67" s="4" t="s">
+      <c r="D52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P67" s="23" t="s">
+      <c r="H52" s="22" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="68" spans="10:16">
-      <c r="J68" s="14" t="s">
+    <row r="53" spans="2:8">
+      <c r="B53" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K68" s="24">
+      <c r="C53" s="32">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="69" spans="10:16">
-      <c r="J69" s="14" t="s">
+    <row r="54" spans="2:8">
+      <c r="B54" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="K69" s="24">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2" t="s">
+      <c r="C54" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="70" spans="10:16">
-      <c r="J70" s="14" t="s">
+    <row r="55" spans="2:8">
+      <c r="B55" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="K70" s="24">
+      <c r="C55" s="32">
         <v>0.98150000000000004</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="71" spans="10:16">
-      <c r="J71" s="14" t="s">
+    <row r="56" spans="2:8">
+      <c r="B56" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="K71" s="24">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2" t="s">
+      <c r="C56" s="32">
+        <v>0.99</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="72" spans="10:16">
-      <c r="J72" s="14" t="s">
+    <row r="57" spans="2:8">
+      <c r="B57" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="K72" s="25">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2" t="s">
+      <c r="C57" s="32">
+        <v>0.99</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="73" spans="10:16">
-      <c r="J73" s="14" t="s">
+    <row r="58" spans="2:8">
+      <c r="B58" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K73" s="24">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2" t="s">
+      <c r="C58" s="32">
+        <v>0.99</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="74" spans="10:16">
-      <c r="J74" s="14" t="s">
+    <row r="59" spans="2:8">
+      <c r="B59" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="K74" s="24">
+      <c r="C59" s="32">
         <v>0.1255</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Company Sentiments.xlsx
+++ b/Company Sentiments.xlsx
@@ -3917,9 +3917,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -4576,14 +4573,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4940,7 +4937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6277,12 +6274,12 @@
     <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -12971,12 +12968,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
@@ -15036,8 +15033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15287,10 +15284,18 @@
       <c r="C15" s="32">
         <v>0.2369</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15303,10 +15308,18 @@
       <c r="C16" s="32">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15318,10 +15331,18 @@
       <c r="C17" s="32">
         <v>0</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15333,10 +15354,18 @@
       <c r="C18" s="32">
         <v>0.313</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15348,10 +15377,18 @@
       <c r="C19" s="32">
         <v>0.21079999999999999</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15363,10 +15400,18 @@
       <c r="C20" s="32">
         <v>0.17419999999999999</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15378,10 +15423,18 @@
       <c r="C21" s="32">
         <v>0.14560000000000001</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15463,10 +15516,18 @@
       <c r="C26" s="32">
         <v>0</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="D26" s="32">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>1201</v>
       </c>
@@ -15605,10 +15666,18 @@
         <f>ROUND(0.669124242424243,4)</f>
         <v>0.66910000000000003</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15620,10 +15689,18 @@
       <c r="C35" s="32">
         <v>0.67373999999999989</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="D35" s="32">
+        <v>0</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0</v>
+      </c>
       <c r="H35" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15636,10 +15713,18 @@
         <f>ROUND(0.714657692307692,4)</f>
         <v>0.7147</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="32">
+        <v>0</v>
+      </c>
+      <c r="E36" s="32">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0</v>
+      </c>
       <c r="H36" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15652,10 +15737,18 @@
         <f>ROUND(0.503048571428571,4)</f>
         <v>0.503</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15668,10 +15761,18 @@
         <f>ROUND(0.582008333333333,4)</f>
         <v>0.58199999999999996</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="D38" s="32">
+        <v>0</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15684,10 +15785,18 @@
         <f>ROUND(0.689226315789473,4)</f>
         <v>0.68920000000000003</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="32">
+        <v>0</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
       <c r="H39" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15700,10 +15809,18 @@
         <f>ROUND(0.636227027027027,4)</f>
         <v>0.63619999999999999</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="D40" s="32">
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15735,16 +15852,16 @@
       <c r="C44" s="32">
         <v>0.1016</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="36" t="s">
         <v>1216</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="36" t="s">
         <v>1217</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="36" t="s">
         <v>1218</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="36" t="s">
         <v>1219</v>
       </c>
       <c r="H44" s="33" t="s">
@@ -15758,16 +15875,16 @@
       <c r="C45" s="32">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="36">
         <v>1.26E-2</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="36">
         <v>3.04E-2</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="36">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="36">
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="H45" s="33" t="s">
@@ -15781,10 +15898,18 @@
       <c r="C46" s="32">
         <v>-0.10349999999999999</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="D46" s="36">
+        <v>0</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36">
+        <v>0</v>
+      </c>
+      <c r="G46" s="36">
+        <v>0</v>
+      </c>
       <c r="H46" s="33" t="s">
         <v>1206</v>
       </c>
@@ -15796,16 +15921,16 @@
       <c r="C47" s="32">
         <v>0.19350000000000001</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="36" t="s">
         <v>1208</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="36" t="s">
         <v>1209</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="36" t="s">
         <v>1210</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="36" t="s">
         <v>1211</v>
       </c>
       <c r="H47" s="33" t="s">
@@ -15819,16 +15944,16 @@
       <c r="C48" s="32">
         <v>0.108</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="36" t="s">
         <v>1212</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="36" t="s">
         <v>1213</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="36" t="s">
         <v>1214</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="36" t="s">
         <v>1215</v>
       </c>
       <c r="H48" s="33" t="s">
@@ -15842,16 +15967,16 @@
       <c r="C49" s="32">
         <v>0.68920000000000003</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="36">
         <v>5.16E-2</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="36">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="36">
         <v>0.56440000000000001</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="36">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H49" s="33" t="s">
@@ -15865,16 +15990,16 @@
       <c r="C50" s="32">
         <v>0.1419</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="36">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="36">
         <v>0.21659999999999999</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="36" t="s">
         <v>1220</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="36">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H50" s="33" t="s">
@@ -15908,10 +16033,18 @@
       <c r="C53" s="32">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="D53" s="32">
+        <v>0</v>
+      </c>
+      <c r="E53" s="32">
+        <v>0</v>
+      </c>
+      <c r="F53" s="32">
+        <v>0</v>
+      </c>
+      <c r="G53" s="32">
+        <v>0</v>
+      </c>
       <c r="H53" s="2" t="s">
         <v>1207</v>
       </c>
@@ -15923,10 +16056,18 @@
       <c r="C54" s="32">
         <v>0.92</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="D54" s="32">
+        <v>0</v>
+      </c>
+      <c r="E54" s="32">
+        <v>0</v>
+      </c>
+      <c r="F54" s="32">
+        <v>0</v>
+      </c>
+      <c r="G54" s="32">
+        <v>0</v>
+      </c>
       <c r="H54" s="2" t="s">
         <v>1207</v>
       </c>
@@ -15938,10 +16079,18 @@
       <c r="C55" s="32">
         <v>0.98150000000000004</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="D55" s="32">
+        <v>0</v>
+      </c>
+      <c r="E55" s="32">
+        <v>0</v>
+      </c>
+      <c r="F55" s="32">
+        <v>0</v>
+      </c>
+      <c r="G55" s="32">
+        <v>0</v>
+      </c>
       <c r="H55" s="2" t="s">
         <v>1207</v>
       </c>
@@ -15953,10 +16102,18 @@
       <c r="C56" s="32">
         <v>0.99</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="D56" s="32">
+        <v>0</v>
+      </c>
+      <c r="E56" s="32">
+        <v>0</v>
+      </c>
+      <c r="F56" s="32">
+        <v>0</v>
+      </c>
+      <c r="G56" s="32">
+        <v>0</v>
+      </c>
       <c r="H56" s="2" t="s">
         <v>1207</v>
       </c>
@@ -15968,10 +16125,18 @@
       <c r="C57" s="32">
         <v>0.99</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="D57" s="32">
+        <v>0</v>
+      </c>
+      <c r="E57" s="32">
+        <v>0</v>
+      </c>
+      <c r="F57" s="32">
+        <v>0</v>
+      </c>
+      <c r="G57" s="32">
+        <v>0</v>
+      </c>
       <c r="H57" s="2" t="s">
         <v>1207</v>
       </c>
@@ -15983,10 +16148,18 @@
       <c r="C58" s="32">
         <v>0.99</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="D58" s="32">
+        <v>0</v>
+      </c>
+      <c r="E58" s="32">
+        <v>0</v>
+      </c>
+      <c r="F58" s="32">
+        <v>0</v>
+      </c>
+      <c r="G58" s="32">
+        <v>0</v>
+      </c>
       <c r="H58" s="2" t="s">
         <v>1207</v>
       </c>
@@ -15998,10 +16171,18 @@
       <c r="C59" s="32">
         <v>0.1255</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="D59" s="32">
+        <v>0</v>
+      </c>
+      <c r="E59" s="32">
+        <v>0</v>
+      </c>
+      <c r="F59" s="32">
+        <v>0</v>
+      </c>
+      <c r="G59" s="32">
+        <v>0</v>
+      </c>
       <c r="H59" s="2" t="s">
         <v>1207</v>
       </c>
@@ -24017,12 +24198,12 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>1164</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:12">

--- a/Company Sentiments.xlsx
+++ b/Company Sentiments.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="1227">
   <si>
     <t xml:space="preserve"> Review </t>
   </si>
@@ -3773,25 +3773,7 @@
     <t> 0.1821</t>
   </si>
   <si>
-    <t> 0.2789</t>
-  </si>
-  <si>
-    <t> 0.1816</t>
-  </si>
-  <si>
-    <t> 0.0331</t>
-  </si>
-  <si>
     <t> 0.0121</t>
-  </si>
-  <si>
-    <t> 0.0777</t>
-  </si>
-  <si>
-    <t> 0.161</t>
-  </si>
-  <si>
-    <t> 0.1529</t>
   </si>
   <si>
     <r>
@@ -3806,51 +3788,6 @@
       </rPr>
       <t>0.1504</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1901</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1588</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.1737</t>
-    </r>
-  </si>
-  <si>
-    <t> 0.094</t>
   </si>
   <si>
     <t>Social</t>
@@ -4563,14 +4500,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4926,7 +4863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4954,16 +4891,16 @@
         <v>1203</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1162</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>47</v>
@@ -4971,10 +4908,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C2" s="2">
         <v>0.29920000000000002</v>
@@ -4987,7 +4924,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1198</v>
@@ -5003,10 +4940,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="C4" s="2">
         <v>0.378</v>
@@ -5019,10 +4956,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C5" s="2">
         <v>0.60489999999999999</v>
@@ -5035,7 +4972,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1198</v>
@@ -5051,10 +4988,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="2">
         <v>0.36099999999999999</v>
@@ -5067,10 +5004,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="2">
         <v>0.66059999999999997</v>
@@ -5083,7 +5020,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1198</v>
@@ -5099,12 +5036,12 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C10" s="37">
+        <v>1212</v>
+      </c>
+      <c r="C10" s="35">
         <v>0.19750000000000001</v>
       </c>
       <c r="D10" s="2"/>
@@ -5115,10 +5052,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C11" s="2">
         <v>0.2954</v>
@@ -5131,7 +5068,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1198</v>
@@ -5147,12 +5084,12 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C13" s="37">
+        <v>1212</v>
+      </c>
+      <c r="C13" s="35">
         <v>0.2848</v>
       </c>
       <c r="D13" s="2"/>
@@ -5163,10 +5100,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C14" s="2">
         <v>0.48799999999999999</v>
@@ -5179,7 +5116,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1198</v>
@@ -5195,12 +5132,12 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C16" s="37">
+        <v>1212</v>
+      </c>
+      <c r="C16" s="35">
         <v>0.35399999999999998</v>
       </c>
       <c r="D16" s="2"/>
@@ -5211,10 +5148,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C17" s="2">
         <v>0.54159999999999997</v>
@@ -5227,7 +5164,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1198</v>
@@ -5243,12 +5180,12 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C19" s="36">
+        <v>1212</v>
+      </c>
+      <c r="C19" s="34">
         <v>0.111</v>
       </c>
       <c r="D19" s="2"/>
@@ -5259,10 +5196,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C20" s="2">
         <v>0.46839999999999993</v>
@@ -5275,7 +5212,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1198</v>
@@ -5291,12 +5228,12 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C22" s="37">
+        <v>1212</v>
+      </c>
+      <c r="C22" s="35">
         <v>0.35060000000000002</v>
       </c>
       <c r="D22" s="2"/>
@@ -6264,12 +6201,12 @@
     <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -12958,12 +12895,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
@@ -14188,16 +14125,16 @@
         <v>1203</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1162</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>47</v>
@@ -14205,13 +14142,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1204</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -14221,7 +14158,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1204</v>
@@ -14237,7 +14174,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1204</v>
@@ -14253,7 +14190,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1204</v>
@@ -14269,13 +14206,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1204</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14285,7 +14222,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1204</v>
@@ -14301,7 +14238,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1204</v>
@@ -14343,16 +14280,16 @@
         <v>1203</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1162</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>47</v>
@@ -14360,7 +14297,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1201</v>
@@ -14377,7 +14314,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1201</v>
@@ -14393,7 +14330,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1201</v>
@@ -14410,7 +14347,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1201</v>
@@ -14427,7 +14364,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1201</v>
@@ -14444,7 +14381,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1201</v>
@@ -14461,7 +14398,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1201</v>
@@ -14504,16 +14441,16 @@
         <v>1203</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1162</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>47</v>
@@ -14521,10 +14458,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C2" s="2">
         <v>0.99980000000000002</v>
@@ -14537,7 +14474,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1205</v>
@@ -14553,10 +14490,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C4" s="2">
         <v>0.98199999999999998</v>
@@ -14569,10 +14506,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C5" s="2">
         <v>0.9</v>
@@ -14585,7 +14522,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1205</v>
@@ -14601,10 +14538,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C7" s="2">
         <v>0.9</v>
@@ -14617,10 +14554,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C8" s="2">
         <v>0.99939999999999996</v>
@@ -14633,7 +14570,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1205</v>
@@ -14649,10 +14586,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C10" s="2">
         <v>0.996</v>
@@ -14665,10 +14602,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C11" s="2">
         <v>0.99</v>
@@ -14681,7 +14618,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1205</v>
@@ -14697,10 +14634,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="2">
         <v>0.99</v>
@@ -14713,10 +14650,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C14" s="2">
         <v>0.97</v>
@@ -14729,7 +14666,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1205</v>
@@ -14745,10 +14682,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C16" s="2">
         <v>0.99</v>
@@ -14761,10 +14698,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C17" s="2">
         <v>0.99</v>
@@ -14777,7 +14714,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1205</v>
@@ -14793,10 +14730,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C19" s="2">
         <v>0.98</v>
@@ -14809,10 +14746,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C20" s="2">
         <v>0.99970000000000003</v>
@@ -14825,7 +14762,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1205</v>
@@ -14841,10 +14778,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C22" s="2">
         <v>0.97</v>
@@ -14882,16 +14819,16 @@
         <v>1203</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1162</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>47</v>
@@ -14899,7 +14836,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1199</v>
@@ -14915,7 +14852,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1199</v>
@@ -14932,7 +14869,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1199</v>
@@ -14948,7 +14885,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1199</v>
@@ -14965,7 +14902,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1199</v>
@@ -14982,7 +14919,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1199</v>
@@ -14999,7 +14936,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1199</v>
@@ -15023,8 +14960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15061,23 +14998,23 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="17" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C5" s="31">
-        <f>'Ford Sentiments'!G3</f>
-        <v>0.31609999999999999</v>
+        <f>'Ford Sentiments'!G3*10</f>
+        <v>3.161</v>
       </c>
       <c r="D5" s="31">
-        <f>'Ford Sentiments'!H3</f>
-        <v>0.29920000000000002</v>
+        <f>'Ford Sentiments'!H3*10</f>
+        <v>2.992</v>
       </c>
       <c r="E5" s="31">
-        <f>'Ford Sentiments'!I3</f>
-        <v>0.29120000000000001</v>
+        <f>'Ford Sentiments'!I3*10</f>
+        <v>2.9119999999999999</v>
       </c>
       <c r="F5" s="31">
-        <f>'Ford Sentiments'!J3</f>
-        <v>0.4259</v>
+        <f>'Ford Sentiments'!J3*10</f>
+        <v>4.2590000000000003</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="2" t="s">
@@ -15086,27 +15023,27 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="17" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C6" s="31">
-        <f>GMSentimentsLinkedin!G3</f>
-        <v>0.64970000000000006</v>
+        <f>GMSentimentsLinkedin!G3*10</f>
+        <v>6.4970000000000008</v>
       </c>
       <c r="D6" s="31">
-        <f>GMSentimentsLinkedin!H3</f>
-        <v>0.60489999999999999</v>
+        <f>GMSentimentsLinkedin!H3*10</f>
+        <v>6.0489999999999995</v>
       </c>
       <c r="E6" s="31">
-        <f>GMSentimentsLinkedin!I3</f>
-        <v>0.65610000000000002</v>
+        <f>GMSentimentsLinkedin!I3*10</f>
+        <v>6.5609999999999999</v>
       </c>
       <c r="F6" s="31">
-        <f>GMSentimentsLinkedin!J3</f>
-        <v>0.66969999999999996</v>
+        <f>GMSentimentsLinkedin!J3*10</f>
+        <v>6.6969999999999992</v>
       </c>
       <c r="G6" s="31">
-        <f>GMSentimentsLinkedin!K3</f>
-        <v>0.67090000000000005</v>
+        <f>GMSentimentsLinkedin!K3*10</f>
+        <v>6.7090000000000005</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1197</v>
@@ -15114,27 +15051,27 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="17" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C7" s="31">
-        <f>'Fiat Sentiments'!G3</f>
-        <v>0.41039999999999999</v>
+        <f>'Fiat Sentiments'!G3*10</f>
+        <v>4.1040000000000001</v>
       </c>
       <c r="D7" s="31">
-        <f>'Fiat Sentiments'!H3</f>
-        <v>0.66059999999999997</v>
+        <f>'Fiat Sentiments'!H3*10</f>
+        <v>6.6059999999999999</v>
       </c>
       <c r="E7" s="31">
-        <f>'Fiat Sentiments'!I3</f>
-        <v>0.4017</v>
+        <f>'Fiat Sentiments'!I3*10</f>
+        <v>4.0170000000000003</v>
       </c>
       <c r="F7" s="31">
-        <f>'Fiat Sentiments'!J3</f>
-        <v>0.2495</v>
+        <f>'Fiat Sentiments'!J3*10</f>
+        <v>2.4950000000000001</v>
       </c>
       <c r="G7" s="31">
-        <f>'Fiat Sentiments'!K3</f>
-        <v>0.1986</v>
+        <f>'Fiat Sentiments'!K3*10</f>
+        <v>1.986</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1197</v>
@@ -15142,23 +15079,23 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="17" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C8" s="31">
-        <f>'Honda Sentiments'!G3</f>
-        <v>0.32190000000000002</v>
+        <f>'Honda Sentiments'!G3*10</f>
+        <v>3.2190000000000003</v>
       </c>
       <c r="D8" s="31">
-        <f>'Honda Sentiments'!H3</f>
-        <v>0.2954</v>
+        <f>'Honda Sentiments'!H3*10</f>
+        <v>2.9539999999999997</v>
       </c>
       <c r="E8" s="31">
-        <f>'Honda Sentiments'!I3</f>
-        <v>0.32669999999999999</v>
+        <f>'Honda Sentiments'!I3*10</f>
+        <v>3.2669999999999999</v>
       </c>
       <c r="F8" s="31">
-        <f>'Honda Sentiments'!J3</f>
-        <v>0.3347</v>
+        <f>'Honda Sentiments'!J3*10</f>
+        <v>3.347</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="2" t="s">
@@ -15167,27 +15104,27 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="17" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C9" s="31">
-        <f>ToyotaSentimentsLinkedin!G3</f>
-        <v>0.50660000000000005</v>
+        <f>ToyotaSentimentsLinkedin!G3*10</f>
+        <v>5.0660000000000007</v>
       </c>
       <c r="D9" s="31">
-        <f>ToyotaSentimentsLinkedin!H3</f>
-        <v>0.48799999999999999</v>
+        <f>ToyotaSentimentsLinkedin!H3*10</f>
+        <v>4.88</v>
       </c>
       <c r="E9" s="31">
-        <f>ToyotaSentimentsLinkedin!I3</f>
-        <v>0.60860000000000003</v>
+        <f>ToyotaSentimentsLinkedin!I3*10</f>
+        <v>6.0860000000000003</v>
       </c>
       <c r="F9" s="31">
-        <f>ToyotaSentimentsLinkedin!J3</f>
-        <v>0.48630000000000001</v>
+        <f>ToyotaSentimentsLinkedin!J3*10</f>
+        <v>4.8630000000000004</v>
       </c>
       <c r="G9" s="31">
-        <f>ToyotaSentimentsLinkedin!K3</f>
-        <v>0.63360000000000005</v>
+        <f>ToyotaSentimentsLinkedin!K3*10</f>
+        <v>6.3360000000000003</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1197</v>
@@ -15195,27 +15132,27 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="17" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C10" s="31">
-        <f>'Volkswagen Sentiments'!G3</f>
-        <v>0.56299999999999994</v>
+        <f>'Volkswagen Sentiments'!G3*10</f>
+        <v>5.629999999999999</v>
       </c>
       <c r="D10" s="31">
-        <f>'Volkswagen Sentiments'!H3</f>
-        <v>0.54159999999999997</v>
+        <f>'Volkswagen Sentiments'!H3*10</f>
+        <v>5.4159999999999995</v>
       </c>
       <c r="E10" s="31">
-        <f>'Volkswagen Sentiments'!I3</f>
-        <v>0.72899999999999998</v>
+        <f>'Volkswagen Sentiments'!I3*10</f>
+        <v>7.29</v>
       </c>
       <c r="F10" s="31">
-        <f>'Volkswagen Sentiments'!J3</f>
-        <v>0.49199999999999999</v>
+        <f>'Volkswagen Sentiments'!J3*10</f>
+        <v>4.92</v>
       </c>
       <c r="G10" s="31">
-        <f>'Volkswagen Sentiments'!K3</f>
-        <v>0.37809999999999999</v>
+        <f>'Volkswagen Sentiments'!K3*10</f>
+        <v>3.7809999999999997</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1197</v>
@@ -15223,23 +15160,23 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="17" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C11" s="31">
-        <f>NissanSentimentsLinkedin!G3</f>
-        <v>0.46229999999999999</v>
+        <f>NissanSentimentsLinkedin!G3*10</f>
+        <v>4.6230000000000002</v>
       </c>
       <c r="D11" s="31">
-        <f>NissanSentimentsLinkedin!H3</f>
-        <v>0.46839999999999993</v>
+        <f>NissanSentimentsLinkedin!H3*10</f>
+        <v>4.6839999999999993</v>
       </c>
       <c r="E11" s="31">
-        <f>NissanSentimentsLinkedin!I3</f>
-        <v>0.4708</v>
+        <f>NissanSentimentsLinkedin!I3*10</f>
+        <v>4.7080000000000002</v>
       </c>
       <c r="F11" s="31">
-        <f>NissanSentimentsLinkedin!J3</f>
-        <v>0.41720000000000002</v>
+        <f>NissanSentimentsLinkedin!J3*10</f>
+        <v>4.1720000000000006</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="2" t="s">
@@ -15269,12 +15206,14 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="17" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="31">
-        <v>0.2369</v>
+        <f>0.2369*10</f>
+        <v>2.3689999999999998</v>
       </c>
       <c r="D15" s="31">
+        <f>0*10</f>
         <v>0</v>
       </c>
       <c r="E15" s="31">
@@ -15293,10 +15232,11 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="17" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="31">
-        <v>0.33500000000000002</v>
+        <f>0.335*10</f>
+        <v>3.35</v>
       </c>
       <c r="D16" s="31">
         <v>0</v>
@@ -15316,7 +15256,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="17" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="31">
         <v>0</v>
@@ -15339,10 +15279,11 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="17" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="31">
-        <v>0.313</v>
+        <f>0.313*10</f>
+        <v>3.13</v>
       </c>
       <c r="D18" s="31">
         <v>0</v>
@@ -15362,10 +15303,11 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="17" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="31">
-        <v>0.21079999999999999</v>
+        <f>0.2108*10</f>
+        <v>2.1079999999999997</v>
       </c>
       <c r="D19" s="31">
         <v>0</v>
@@ -15385,10 +15327,11 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="17" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="31">
-        <v>0.17419999999999999</v>
+        <f>0.1742*10</f>
+        <v>1.742</v>
       </c>
       <c r="D20" s="31">
         <v>0</v>
@@ -15408,10 +15351,11 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="17" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="31">
-        <v>0.14560000000000001</v>
+        <f>0.1456*10</f>
+        <v>1.456</v>
       </c>
       <c r="D21" s="31">
         <v>0</v>
@@ -15451,22 +15395,27 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="17" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C24" s="31">
-        <v>0.45129999999999998</v>
+        <f>0.4513*10</f>
+        <v>4.5129999999999999</v>
       </c>
       <c r="D24" s="31">
-        <v>0.34460000000000002</v>
+        <f>0.3446*10</f>
+        <v>3.4460000000000002</v>
       </c>
       <c r="E24" s="31">
-        <v>0.4672</v>
+        <f>0.4672*10</f>
+        <v>4.6719999999999997</v>
       </c>
       <c r="F24" s="31">
-        <v>0.44269999999999998</v>
+        <f>0.4427*10</f>
+        <v>4.4269999999999996</v>
       </c>
       <c r="G24" s="31">
-        <v>0.46939999999999998</v>
+        <f>0.4694*10</f>
+        <v>4.694</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>1199</v>
@@ -15474,26 +15423,27 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="17" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C25" s="31">
-        <v>0.45933000000000002</v>
+        <f>0.45933*10</f>
+        <v>4.5933000000000002</v>
       </c>
       <c r="D25" s="31">
-        <f>ROUND(0.3828,4)</f>
-        <v>0.38279999999999997</v>
+        <f>ROUND(0.3828,4)*10</f>
+        <v>3.8279999999999998</v>
       </c>
       <c r="E25" s="31">
-        <f>ROUND(0.424841614906832,4)</f>
-        <v>0.42480000000000001</v>
+        <f>ROUND(0.424841614906832,4)*10</f>
+        <v>4.2480000000000002</v>
       </c>
       <c r="F25" s="31">
-        <f>ROUND(0.441408227848101,4)</f>
-        <v>0.44140000000000001</v>
+        <f>ROUND(0.441408227848101,4)*10</f>
+        <v>4.4139999999999997</v>
       </c>
       <c r="G25" s="31">
-        <f>ROUND(0.413464566929134,4)</f>
-        <v>0.41349999999999998</v>
+        <f>ROUND(0.413464566929134,4)*10</f>
+        <v>4.1349999999999998</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>1199</v>
@@ -15501,7 +15451,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="17" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C26" s="31">
         <v>0</v>
@@ -15524,25 +15474,27 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="17" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C27" s="31">
-        <v>0.50290000000000001</v>
+        <f>0.5029*10</f>
+        <v>5.0289999999999999</v>
       </c>
       <c r="D27" s="31">
-        <f>ROUND(0.676763636363636,4)</f>
-        <v>0.67679999999999996</v>
+        <f>ROUND(0.676763636363636,4)*10</f>
+        <v>6.7679999999999998</v>
       </c>
       <c r="E27" s="31">
-        <f>ROUND(0.318119047619048,4)</f>
-        <v>0.31809999999999999</v>
+        <f>ROUND(0.318119047619048,4)*10</f>
+        <v>3.181</v>
       </c>
       <c r="F27" s="31">
-        <f>ROUND(0.196378260869565,4)</f>
-        <v>0.19639999999999999</v>
+        <f>ROUND(0.196378260869565,4)*10</f>
+        <v>1.964</v>
       </c>
       <c r="G27" s="31">
-        <v>0.55409999999999993</v>
+        <f>0.5541*10</f>
+        <v>5.5410000000000004</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>1199</v>
@@ -15550,26 +15502,27 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="17" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C28" s="31">
-        <v>0.54879999999999995</v>
+        <f>0.5488*10</f>
+        <v>5.4879999999999995</v>
       </c>
       <c r="D28" s="31">
-        <f>ROUND(0.60645,4)</f>
-        <v>0.60650000000000004</v>
+        <f>ROUND(0.60645,4)*10</f>
+        <v>6.0650000000000004</v>
       </c>
       <c r="E28" s="31">
-        <f>ROUND(0.494918181818182,4)</f>
-        <v>0.49490000000000001</v>
+        <f>ROUND(0.494918181818182,4)*10</f>
+        <v>4.9489999999999998</v>
       </c>
       <c r="F28" s="31">
-        <f>ROUND(0.566244,4)</f>
-        <v>0.56620000000000004</v>
+        <f>ROUND(0.566244,4)*10</f>
+        <v>5.6620000000000008</v>
       </c>
       <c r="G28" s="31">
-        <f>ROUND(0.737293333333333,4)</f>
-        <v>0.73729999999999996</v>
+        <f>ROUND(0.737293333333333,4)*10</f>
+        <v>7.3729999999999993</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>1199</v>
@@ -15577,25 +15530,27 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="17" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C29" s="31">
-        <v>0.40400000000000003</v>
+        <f>0.404*10</f>
+        <v>4.04</v>
       </c>
       <c r="D29" s="31">
-        <f>ROUND(0.236554545454545,4)</f>
-        <v>0.2366</v>
+        <f>ROUND(0.236554545454545,4)*10</f>
+        <v>2.3660000000000001</v>
       </c>
       <c r="E29" s="31">
-        <v>0.44880000000000003</v>
+        <f>0.4488*10</f>
+        <v>4.4879999999999995</v>
       </c>
       <c r="F29" s="31">
-        <f>ROUND(0.410175,4)</f>
-        <v>0.41020000000000001</v>
+        <f>ROUND(0.410175,4)*10</f>
+        <v>4.1020000000000003</v>
       </c>
       <c r="G29" s="31">
-        <f>ROUND(0.323466666666667,4)</f>
-        <v>0.32350000000000001</v>
+        <f>ROUND(0.323466666666667,4)*10</f>
+        <v>3.2350000000000003</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1199</v>
@@ -15603,26 +15558,27 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="17" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C30" s="31">
-        <v>0.36930000000000002</v>
+        <f>0.3693*10</f>
+        <v>3.6930000000000001</v>
       </c>
       <c r="D30" s="31">
-        <f>ROUND(0.516525806451613,4)</f>
-        <v>0.51649999999999996</v>
+        <f>ROUND(0.516525806451613,4)*10</f>
+        <v>5.1649999999999991</v>
       </c>
       <c r="E30" s="31">
-        <f>ROUND(0.378582142857143,4)</f>
-        <v>0.37859999999999999</v>
+        <f>ROUND(0.378582142857143,4)*10</f>
+        <v>3.786</v>
       </c>
       <c r="F30" s="31">
-        <f>ROUND(0.470846666666667,4)</f>
-        <v>0.4708</v>
+        <f>ROUND(0.470846666666667,4)*10</f>
+        <v>4.7080000000000002</v>
       </c>
       <c r="G30" s="31">
-        <f>ROUND(0.164942857142857,4)</f>
-        <v>0.16489999999999999</v>
+        <f>ROUND(0.164942857142857,4)*10</f>
+        <v>1.649</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>1199</v>
@@ -15650,11 +15606,11 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="17" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C34" s="31">
-        <f>ROUND(0.669124242424243,4)</f>
-        <v>0.66910000000000003</v>
+        <f>ROUND(0.669124242424243,4)*10</f>
+        <v>6.6910000000000007</v>
       </c>
       <c r="D34" s="31">
         <v>0</v>
@@ -15674,10 +15630,11 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="17" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C35" s="31">
-        <v>0.67373999999999989</v>
+        <f>0.67374*10</f>
+        <v>6.7374000000000001</v>
       </c>
       <c r="D35" s="31">
         <v>0</v>
@@ -15697,11 +15654,11 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="17" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C36" s="31">
-        <f>ROUND(0.714657692307692,4)</f>
-        <v>0.7147</v>
+        <f>ROUND(0.714657692307692,4)*10</f>
+        <v>7.1470000000000002</v>
       </c>
       <c r="D36" s="31">
         <v>0</v>
@@ -15721,11 +15678,11 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="17" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C37" s="31">
-        <f>ROUND(0.503048571428571,4)</f>
-        <v>0.503</v>
+        <f>ROUND(0.503048571428571,4)*10</f>
+        <v>5.03</v>
       </c>
       <c r="D37" s="31">
         <v>0</v>
@@ -15745,11 +15702,11 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="17" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C38" s="31">
-        <f>ROUND(0.582008333333333,4)</f>
-        <v>0.58199999999999996</v>
+        <f>ROUND(0.582008333333333,4)*10</f>
+        <v>5.8199999999999994</v>
       </c>
       <c r="D38" s="31">
         <v>0</v>
@@ -15769,11 +15726,11 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="17" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C39" s="31">
-        <f>ROUND(0.689226315789473,4)</f>
-        <v>0.68920000000000003</v>
+        <f>ROUND(0.689226315789473,4)*10</f>
+        <v>6.8920000000000003</v>
       </c>
       <c r="D39" s="31">
         <v>0</v>
@@ -15793,11 +15750,11 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="17" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C40" s="31">
-        <f>ROUND(0.636227027027027,4)</f>
-        <v>0.63619999999999999</v>
+        <f>ROUND(0.636227027027027,4)*10</f>
+        <v>6.3620000000000001</v>
       </c>
       <c r="D40" s="31">
         <v>0</v>
@@ -15837,22 +15794,27 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="17" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C44" s="31">
-        <v>0.1016</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>1217</v>
+        <f>0.1016*10</f>
+        <v>1.016</v>
+      </c>
+      <c r="D44" s="33">
+        <f>0.1504*10</f>
+        <v>1.504</v>
+      </c>
+      <c r="E44" s="33">
+        <f>0.1901*10</f>
+        <v>1.9009999999999998</v>
+      </c>
+      <c r="F44" s="33">
+        <f>0.1588*10</f>
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="G44" s="33">
+        <f>0.1737*10</f>
+        <v>1.7369999999999999</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>1204</v>
@@ -15860,22 +15822,27 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="17" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C45" s="31">
-        <v>-1.6799999999999999E-2</v>
+        <f>-0.0168*10</f>
+        <v>-0.16799999999999998</v>
       </c>
       <c r="D45" s="33">
-        <v>1.26E-2</v>
+        <f>0.0126*10</f>
+        <v>0.126</v>
       </c>
       <c r="E45" s="33">
-        <v>3.04E-2</v>
+        <f>0.0304*10</f>
+        <v>0.30399999999999999</v>
       </c>
       <c r="F45" s="33">
-        <v>3.8699999999999998E-2</v>
+        <f>0.0387*10</f>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G45" s="33">
-        <v>5.4100000000000002E-2</v>
+        <f>0.0541*10</f>
+        <v>0.54100000000000004</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>1204</v>
@@ -15883,10 +15850,11 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="17" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C46" s="31">
-        <v>-0.10349999999999999</v>
+        <f>-0.1035*10</f>
+        <v>-1.0349999999999999</v>
       </c>
       <c r="D46" s="33">
         <v>0</v>
@@ -15906,22 +15874,27 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="17" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C47" s="31">
-        <v>0.19350000000000001</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>1209</v>
+        <f>0.1935*10</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="D47" s="33">
+        <f>0.1821*10</f>
+        <v>1.8210000000000002</v>
+      </c>
+      <c r="E47" s="33">
+        <f>0.2789*10</f>
+        <v>2.7889999999999997</v>
+      </c>
+      <c r="F47" s="33">
+        <f>0.1816*10</f>
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="G47" s="33">
+        <f>0.0331*10</f>
+        <v>0.33099999999999996</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>1204</v>
@@ -15929,22 +15902,27 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="17" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C48" s="31">
-        <v>0.108</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>1213</v>
+        <f>0.108*10</f>
+        <v>1.08</v>
+      </c>
+      <c r="D48" s="33">
+        <f>0.0121*10</f>
+        <v>0.121</v>
+      </c>
+      <c r="E48" s="33">
+        <f>0.0777*10</f>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F48" s="33">
+        <f>0.161*10</f>
+        <v>1.61</v>
+      </c>
+      <c r="G48" s="33">
+        <f>0.1529*10</f>
+        <v>1.5290000000000001</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>1204</v>
@@ -15952,22 +15930,27 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="17" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C49" s="31">
-        <v>0.68920000000000003</v>
+        <f>0.6892*10</f>
+        <v>6.8920000000000003</v>
       </c>
       <c r="D49" s="33">
-        <v>5.16E-2</v>
+        <f>0.0516*10</f>
+        <v>0.51600000000000001</v>
       </c>
       <c r="E49" s="33">
-        <v>0.13600000000000001</v>
+        <f>0.136*10</f>
+        <v>1.36</v>
       </c>
       <c r="F49" s="33">
-        <v>0.56440000000000001</v>
+        <f>0.5644*10</f>
+        <v>5.6440000000000001</v>
       </c>
       <c r="G49" s="33">
-        <v>5.0000000000000001E-3</v>
+        <f>0.005*10</f>
+        <v>0.05</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>1204</v>
@@ -15975,22 +15958,27 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="17" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C50" s="31">
-        <v>0.1419</v>
+        <f>0.1419*10</f>
+        <v>1.419</v>
       </c>
       <c r="D50" s="33">
-        <v>0.13400000000000001</v>
+        <f>0.134*10</f>
+        <v>1.34</v>
       </c>
       <c r="E50" s="33">
-        <v>0.21659999999999999</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>1218</v>
+        <f>0.2166*10</f>
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="F50" s="33">
+        <f>0.094*10</f>
+        <v>0.94</v>
       </c>
       <c r="G50" s="33">
-        <v>7.3999999999999996E-2</v>
+        <f>0.074*10</f>
+        <v>0.74</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>1204</v>
@@ -16018,10 +16006,11 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="17" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C53" s="31">
-        <v>0.14899999999999999</v>
+        <f>0.149*10</f>
+        <v>1.49</v>
       </c>
       <c r="D53" s="31">
         <v>0</v>
@@ -16041,10 +16030,11 @@
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="17" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C54" s="31">
-        <v>0.92</v>
+        <f>0.92*10</f>
+        <v>9.2000000000000011</v>
       </c>
       <c r="D54" s="31">
         <v>0</v>
@@ -16064,10 +16054,11 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="17" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C55" s="31">
-        <v>0.98150000000000004</v>
+        <f>0.9815*10</f>
+        <v>9.8150000000000013</v>
       </c>
       <c r="D55" s="31">
         <v>0</v>
@@ -16087,10 +16078,11 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="17" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C56" s="31">
-        <v>0.99</v>
+        <f>0.99*10</f>
+        <v>9.9</v>
       </c>
       <c r="D56" s="31">
         <v>0</v>
@@ -16110,10 +16102,11 @@
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="17" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C57" s="31">
-        <v>0.99</v>
+        <f>0.99*10</f>
+        <v>9.9</v>
       </c>
       <c r="D57" s="31">
         <v>0</v>
@@ -16133,10 +16126,11 @@
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="17" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C58" s="31">
-        <v>0.99</v>
+        <f>0.99*10</f>
+        <v>9.9</v>
       </c>
       <c r="D58" s="31">
         <v>0</v>
@@ -16156,10 +16150,11 @@
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="17" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C59" s="31">
-        <v>0.1255</v>
+        <f>0.1255*10</f>
+        <v>1.2549999999999999</v>
       </c>
       <c r="D59" s="31">
         <v>0</v>
@@ -24188,12 +24183,12 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>1162</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:12">
@@ -24230,7 +24225,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1153</v>
       </c>
@@ -24359,7 +24354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
+    <row r="6" spans="1:12" ht="30">
       <c r="A6" s="1" t="s">
         <v>1151</v>
       </c>
@@ -24402,7 +24397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75">
+    <row r="7" spans="1:12" ht="60">
       <c r="A7" s="1" t="s">
         <v>1161</v>
       </c>
@@ -24688,7 +24683,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>1139</v>
       </c>
@@ -24714,7 +24709,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="45">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="1" t="s">
         <v>1138</v>
       </c>
@@ -24766,7 +24761,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="30">
       <c r="A21" s="1" t="s">
         <v>1155</v>
       </c>
@@ -24922,7 +24917,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="45">
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="1" t="s">
         <v>1131</v>
       </c>
@@ -24948,7 +24943,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="120">
+    <row r="28" spans="1:12" ht="75">
       <c r="A28" s="1" t="s">
         <v>1130</v>
       </c>
@@ -24974,7 +24969,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>1129</v>
       </c>
@@ -25026,7 +25021,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="30">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>1127</v>
       </c>
@@ -25052,7 +25047,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="45">
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="1" t="s">
         <v>1098</v>
       </c>
@@ -25078,7 +25073,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="90">
+    <row r="33" spans="1:12" ht="60">
       <c r="A33" s="1" t="s">
         <v>1097</v>
       </c>
@@ -25130,7 +25125,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="45">
+    <row r="35" spans="1:12" ht="30">
       <c r="A35" s="1" t="s">
         <v>1155</v>
       </c>
@@ -25156,7 +25151,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="30">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>1124</v>
       </c>
@@ -25208,7 +25203,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="45">
+    <row r="38" spans="1:12" ht="30">
       <c r="A38" s="1" t="s">
         <v>1098</v>
       </c>
@@ -25234,7 +25229,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="90">
+    <row r="39" spans="1:12" ht="60">
       <c r="A39" s="1" t="s">
         <v>1097</v>
       </c>
@@ -25260,7 +25255,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="45">
+    <row r="40" spans="1:12" ht="30">
       <c r="A40" s="1" t="s">
         <v>1155</v>
       </c>
@@ -25312,7 +25307,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="90">
+    <row r="42" spans="1:12" ht="60">
       <c r="A42" s="1" t="s">
         <v>1157</v>
       </c>
@@ -25416,7 +25411,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="30">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>1118</v>
       </c>
@@ -25598,7 +25593,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="30">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>1111</v>
       </c>
@@ -25624,7 +25619,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="30">
       <c r="A54" s="1" t="s">
         <v>1110</v>
       </c>
@@ -25650,7 +25645,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="30">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>1109</v>
       </c>
@@ -25676,7 +25671,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="45">
+    <row r="56" spans="1:12" ht="30">
       <c r="A56" s="1" t="s">
         <v>1155</v>
       </c>
@@ -25702,7 +25697,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>1108</v>
       </c>
@@ -25728,7 +25723,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="60">
+    <row r="58" spans="1:12" ht="45">
       <c r="A58" s="1" t="s">
         <v>1107</v>
       </c>
@@ -25832,7 +25827,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="30">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>1104</v>
       </c>
@@ -25858,7 +25853,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="60">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="1" t="s">
         <v>1103</v>
       </c>
@@ -25910,7 +25905,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="30">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>1101</v>
       </c>
@@ -25936,7 +25931,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="75">
+    <row r="66" spans="1:12" ht="45">
       <c r="A66" s="1" t="s">
         <v>1100</v>
       </c>
@@ -25962,7 +25957,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="45">
+    <row r="67" spans="1:12" ht="30">
       <c r="A67" s="1" t="s">
         <v>1099</v>
       </c>
@@ -25988,7 +25983,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="45">
+    <row r="68" spans="1:12" ht="30">
       <c r="A68" s="1" t="s">
         <v>1098</v>
       </c>
@@ -26014,7 +26009,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="90">
+    <row r="69" spans="1:12" ht="60">
       <c r="A69" s="1" t="s">
         <v>1097</v>
       </c>
@@ -26040,7 +26035,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="45">
+    <row r="70" spans="1:12" ht="30">
       <c r="A70" s="1" t="s">
         <v>1155</v>
       </c>
@@ -26092,7 +26087,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="60">
+    <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
         <v>1095</v>
       </c>
@@ -26144,7 +26139,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="30">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>1153</v>
       </c>
@@ -26222,7 +26217,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="45">
+    <row r="77" spans="1:12" ht="30">
       <c r="A77" s="1" t="s">
         <v>1151</v>
       </c>
@@ -26482,7 +26477,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="30">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>1141</v>
       </c>
@@ -26534,7 +26529,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="30">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>1139</v>
       </c>
@@ -26560,7 +26555,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="45">
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="1" t="s">
         <v>1138</v>
       </c>
@@ -26768,7 +26763,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="45">
+    <row r="98" spans="1:12" ht="30">
       <c r="A98" s="1" t="s">
         <v>1131</v>
       </c>
@@ -26794,7 +26789,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="120">
+    <row r="99" spans="1:12" ht="75">
       <c r="A99" s="1" t="s">
         <v>1130</v>
       </c>
@@ -26820,7 +26815,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="30">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>1129</v>
       </c>
@@ -26872,7 +26867,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="30">
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
         <v>1127</v>
       </c>
@@ -26898,7 +26893,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="45">
+    <row r="103" spans="1:12" ht="30">
       <c r="A103" s="1" t="s">
         <v>1098</v>
       </c>
@@ -26924,7 +26919,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="90">
+    <row r="104" spans="1:12" ht="60">
       <c r="A104" s="1" t="s">
         <v>1097</v>
       </c>
@@ -27002,7 +26997,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="30">
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>1124</v>
       </c>
@@ -27054,7 +27049,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="45">
+    <row r="109" spans="1:12" ht="30">
       <c r="A109" s="1" t="s">
         <v>1098</v>
       </c>
@@ -27080,7 +27075,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="90">
+    <row r="110" spans="1:12" ht="60">
       <c r="A110" s="1" t="s">
         <v>1097</v>
       </c>
@@ -27210,7 +27205,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="30">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>1118</v>
       </c>
@@ -27392,7 +27387,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="30">
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
         <v>1111</v>
       </c>
@@ -27418,7 +27413,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="45">
+    <row r="123" spans="1:12" ht="30">
       <c r="A123" s="1" t="s">
         <v>1110</v>
       </c>
@@ -27444,7 +27439,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="30">
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
         <v>1109</v>
       </c>
@@ -27470,7 +27465,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="30">
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
         <v>1108</v>
       </c>
@@ -27496,7 +27491,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="60">
+    <row r="126" spans="1:12" ht="45">
       <c r="A126" s="1" t="s">
         <v>1107</v>
       </c>
@@ -27574,7 +27569,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="30">
+    <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
         <v>1104</v>
       </c>
@@ -27600,7 +27595,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="60">
+    <row r="130" spans="1:12" ht="30">
       <c r="A130" s="1" t="s">
         <v>1103</v>
       </c>
@@ -27652,7 +27647,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="30">
+    <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>1101</v>
       </c>
@@ -27678,7 +27673,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="75">
+    <row r="133" spans="1:12" ht="45">
       <c r="A133" s="1" t="s">
         <v>1100</v>
       </c>
@@ -27704,7 +27699,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" ht="45">
+    <row r="134" spans="1:12" ht="30">
       <c r="A134" s="1" t="s">
         <v>1099</v>
       </c>
@@ -27730,7 +27725,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="30">
       <c r="A135" s="1" t="s">
         <v>1098</v>
       </c>
@@ -27756,7 +27751,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" ht="90">
+    <row r="136" spans="1:12" ht="60">
       <c r="A136" s="1" t="s">
         <v>1097</v>
       </c>
@@ -27808,7 +27803,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" ht="30">
+    <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
         <v>1096</v>
       </c>
@@ -27834,7 +27829,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" ht="60">
+    <row r="139" spans="1:12" ht="45">
       <c r="A139" s="1" t="s">
         <v>1095</v>
       </c>
@@ -27886,7 +27881,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" ht="45">
+    <row r="141" spans="1:12" ht="30">
       <c r="A141" s="1" t="s">
         <v>1093</v>
       </c>
@@ -27912,7 +27907,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" ht="45">
+    <row r="142" spans="1:12" ht="30">
       <c r="A142" s="1" t="s">
         <v>1092</v>
       </c>
@@ -27938,7 +27933,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" ht="30">
+    <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
         <v>1091</v>
       </c>
@@ -27990,7 +27985,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" ht="30">
+    <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
         <v>1090</v>
       </c>
@@ -28042,7 +28037,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" ht="105">
+    <row r="147" spans="1:12" ht="60">
       <c r="A147" s="1" t="s">
         <v>1088</v>
       </c>
@@ -28068,7 +28063,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" ht="45">
+    <row r="148" spans="1:12" ht="30">
       <c r="A148" s="1" t="s">
         <v>1087</v>
       </c>
@@ -28094,7 +28089,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" ht="45">
+    <row r="149" spans="1:12" ht="30">
       <c r="A149" s="1" t="s">
         <v>1086</v>
       </c>
@@ -28172,7 +28167,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" ht="45">
+    <row r="152" spans="1:12" ht="30">
       <c r="A152" s="1" t="s">
         <v>1083</v>
       </c>
@@ -28224,7 +28219,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" ht="60">
+    <row r="154" spans="1:12" ht="30">
       <c r="A154" s="1" t="s">
         <v>1081</v>
       </c>
@@ -28250,7 +28245,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" ht="75">
+    <row r="155" spans="1:12" ht="45">
       <c r="A155" s="1" t="s">
         <v>1080</v>
       </c>
@@ -28276,7 +28271,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" ht="45">
+    <row r="156" spans="1:12" ht="30">
       <c r="A156" s="1" t="s">
         <v>1079</v>
       </c>
@@ -28302,7 +28297,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" ht="60">
+    <row r="157" spans="1:12" ht="45">
       <c r="A157" s="1" t="s">
         <v>1078</v>
       </c>
@@ -28354,7 +28349,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="45">
+    <row r="159" spans="1:12" ht="30">
       <c r="A159" s="1" t="s">
         <v>1076</v>
       </c>
@@ -28406,7 +28401,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" ht="30">
+    <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
         <v>1074</v>
       </c>
@@ -28640,7 +28635,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" ht="45">
+    <row r="170" spans="1:12" ht="30">
       <c r="A170" s="1" t="s">
         <v>1065</v>
       </c>
@@ -28666,7 +28661,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" ht="45">
+    <row r="171" spans="1:12" ht="30">
       <c r="A171" s="1" t="s">
         <v>1064</v>
       </c>
@@ -28692,7 +28687,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" ht="105">
+    <row r="172" spans="1:12" ht="75">
       <c r="A172" s="1" t="s">
         <v>1063</v>
       </c>
@@ -28718,7 +28713,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" ht="30">
+    <row r="173" spans="1:12">
       <c r="A173" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28744,7 +28739,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="75">
+    <row r="174" spans="1:12" ht="45">
       <c r="A174" s="1" t="s">
         <v>1061</v>
       </c>
@@ -28796,7 +28791,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" ht="180">
+    <row r="176" spans="1:12" ht="120">
       <c r="A176" s="1" t="s">
         <v>1059</v>
       </c>
@@ -28822,7 +28817,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="45">
+    <row r="177" spans="1:12" ht="30">
       <c r="A177" s="1" t="s">
         <v>1058</v>
       </c>
@@ -28874,7 +28869,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="30">
+    <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
         <v>1056</v>
       </c>
@@ -28900,7 +28895,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="75">
+    <row r="180" spans="1:12" ht="45">
       <c r="A180" s="1" t="s">
         <v>1055</v>
       </c>
@@ -28952,7 +28947,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="60">
+    <row r="182" spans="1:12" ht="30">
       <c r="A182" s="1" t="s">
         <v>1053</v>
       </c>
@@ -29030,7 +29025,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="45">
+    <row r="185" spans="1:12" ht="30">
       <c r="A185" s="1" t="s">
         <v>1050</v>
       </c>
@@ -29108,7 +29103,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="120">
+    <row r="188" spans="1:12" ht="75">
       <c r="A188" s="1" t="s">
         <v>1047</v>
       </c>
@@ -29186,7 +29181,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="30">
+    <row r="191" spans="1:12">
       <c r="A191" s="1" t="s">
         <v>1044</v>
       </c>
@@ -29212,7 +29207,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="30">
+    <row r="192" spans="1:12">
       <c r="A192" s="1" t="s">
         <v>1043</v>
       </c>
@@ -29446,7 +29441,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12" ht="45">
+    <row r="201" spans="1:12" ht="30">
       <c r="A201" s="1" t="s">
         <v>1034</v>
       </c>
@@ -29472,7 +29467,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12" ht="105">
+    <row r="202" spans="1:12" ht="60">
       <c r="A202" s="1" t="s">
         <v>1033</v>
       </c>
@@ -29498,7 +29493,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="45">
+    <row r="203" spans="1:12" ht="30">
       <c r="A203" s="1" t="s">
         <v>1032</v>
       </c>
@@ -29524,7 +29519,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12" ht="45">
+    <row r="204" spans="1:12" ht="30">
       <c r="A204" s="1" t="s">
         <v>1031</v>
       </c>
@@ -29550,7 +29545,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12" ht="30">
+    <row r="205" spans="1:12">
       <c r="A205" s="1" t="s">
         <v>1030</v>
       </c>
@@ -29576,7 +29571,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12" ht="30">
+    <row r="206" spans="1:12">
       <c r="A206" s="1" t="s">
         <v>1029</v>
       </c>
@@ -29680,7 +29675,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12" ht="30">
+    <row r="210" spans="1:12">
       <c r="A210" s="1" t="s">
         <v>1025</v>
       </c>
@@ -29758,7 +29753,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12" ht="60">
+    <row r="213" spans="1:12" ht="30">
       <c r="A213" s="1" t="s">
         <v>1022</v>
       </c>
@@ -29784,7 +29779,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12" ht="30">
+    <row r="214" spans="1:12">
       <c r="A214" s="1" t="s">
         <v>1021</v>
       </c>
@@ -29862,7 +29857,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12" ht="30">
+    <row r="217" spans="1:12">
       <c r="A217" s="1" t="s">
         <v>1018</v>
       </c>
@@ -29966,7 +29961,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="45">
+    <row r="221" spans="1:12" ht="30">
       <c r="A221" s="1" t="s">
         <v>1014</v>
       </c>
@@ -30096,7 +30091,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="30">
+    <row r="226" spans="1:12">
       <c r="A226" s="1" t="s">
         <v>1009</v>
       </c>
@@ -30148,7 +30143,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12" ht="30">
+    <row r="228" spans="1:12">
       <c r="A228" s="1" t="s">
         <v>1007</v>
       </c>
@@ -30174,7 +30169,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12" ht="135">
+    <row r="229" spans="1:12" ht="75">
       <c r="A229" s="1" t="s">
         <v>1006</v>
       </c>
@@ -30200,7 +30195,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12" ht="30">
+    <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
         <v>1005</v>
       </c>
@@ -30226,7 +30221,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12" ht="45">
+    <row r="231" spans="1:12" ht="30">
       <c r="A231" s="1" t="s">
         <v>1004</v>
       </c>
@@ -30252,7 +30247,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="45">
+    <row r="232" spans="1:12" ht="30">
       <c r="A232" s="1" t="s">
         <v>1003</v>
       </c>
@@ -30304,7 +30299,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12" ht="60">
+    <row r="234" spans="1:12" ht="30">
       <c r="A234" s="1" t="s">
         <v>1001</v>
       </c>
@@ -30330,7 +30325,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12" ht="30">
+    <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
         <v>1000</v>
       </c>
@@ -30356,7 +30351,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12" ht="60">
+    <row r="236" spans="1:12" ht="30">
       <c r="A236" s="1" t="s">
         <v>999</v>
       </c>
@@ -30460,7 +30455,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" ht="30">
+    <row r="240" spans="1:12">
       <c r="A240" s="1" t="s">
         <v>995</v>
       </c>
@@ -30512,7 +30507,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12" ht="45">
+    <row r="242" spans="1:12" ht="30">
       <c r="A242" s="1" t="s">
         <v>993</v>
       </c>
@@ -30564,7 +30559,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" ht="75">
+    <row r="244" spans="1:12" ht="45">
       <c r="A244" s="1" t="s">
         <v>991</v>
       </c>
@@ -30642,7 +30637,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" ht="30">
+    <row r="247" spans="1:12">
       <c r="A247" s="1" t="s">
         <v>988</v>
       </c>
@@ -30668,7 +30663,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="45">
+    <row r="248" spans="1:12" ht="30">
       <c r="A248" s="1" t="s">
         <v>987</v>
       </c>
@@ -30694,7 +30689,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12" ht="45">
+    <row r="249" spans="1:12" ht="30">
       <c r="A249" s="1" t="s">
         <v>986</v>
       </c>
@@ -30720,7 +30715,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12" ht="60">
+    <row r="250" spans="1:12" ht="45">
       <c r="A250" s="1" t="s">
         <v>985</v>
       </c>
@@ -30746,7 +30741,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12" ht="45">
+    <row r="251" spans="1:12" ht="30">
       <c r="A251" s="1" t="s">
         <v>984</v>
       </c>
@@ -30772,7 +30767,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12" ht="30">
+    <row r="252" spans="1:12">
       <c r="A252" s="1" t="s">
         <v>983</v>
       </c>
@@ -30824,7 +30819,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12" ht="60">
+    <row r="254" spans="1:12" ht="45">
       <c r="A254" s="1" t="s">
         <v>981</v>
       </c>
@@ -30850,7 +30845,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12" ht="30">
+    <row r="255" spans="1:12">
       <c r="A255" s="1" t="s">
         <v>980</v>
       </c>
@@ -30876,7 +30871,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12" ht="45">
+    <row r="256" spans="1:12" ht="30">
       <c r="A256" s="1" t="s">
         <v>979</v>
       </c>
@@ -30902,7 +30897,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12" ht="60">
+    <row r="257" spans="1:12" ht="30">
       <c r="A257" s="1" t="s">
         <v>978</v>
       </c>
@@ -31032,7 +31027,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12" ht="75">
+    <row r="262" spans="1:12" ht="45">
       <c r="A262" s="1" t="s">
         <v>973</v>
       </c>
@@ -31084,7 +31079,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12" ht="30">
+    <row r="264" spans="1:12">
       <c r="A264" s="1" t="s">
         <v>971</v>
       </c>
@@ -31110,7 +31105,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12" ht="30">
+    <row r="265" spans="1:12">
       <c r="A265" s="1" t="s">
         <v>970</v>
       </c>
@@ -31136,7 +31131,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12" ht="30">
+    <row r="266" spans="1:12">
       <c r="A266" s="1" t="s">
         <v>969</v>
       </c>
@@ -31214,7 +31209,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12" ht="45">
+    <row r="269" spans="1:12" ht="30">
       <c r="A269" s="1" t="s">
         <v>966</v>
       </c>
@@ -31344,7 +31339,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12" ht="60">
+    <row r="274" spans="1:12" ht="45">
       <c r="A274" s="1" t="s">
         <v>961</v>
       </c>
@@ -31422,7 +31417,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12" ht="45">
+    <row r="277" spans="1:12" ht="30">
       <c r="A277" s="1" t="s">
         <v>958</v>
       </c>
@@ -31526,7 +31521,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12" ht="45">
+    <row r="281" spans="1:12" ht="30">
       <c r="A281" s="1" t="s">
         <v>954</v>
       </c>
@@ -31552,7 +31547,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12" ht="30">
+    <row r="282" spans="1:12">
       <c r="A282" s="1" t="s">
         <v>953</v>
       </c>
@@ -31604,7 +31599,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12" ht="105">
+    <row r="284" spans="1:12" ht="75">
       <c r="A284" s="1" t="s">
         <v>951</v>
       </c>
@@ -31656,7 +31651,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="60">
+    <row r="286" spans="1:12" ht="45">
       <c r="A286" s="1" t="s">
         <v>949</v>
       </c>
@@ -31708,7 +31703,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12" ht="45">
+    <row r="288" spans="1:12" ht="30">
       <c r="A288" s="1" t="s">
         <v>948</v>
       </c>
@@ -31968,7 +31963,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" ht="60">
+    <row r="298" spans="1:12" ht="30">
       <c r="A298" s="1" t="s">
         <v>940</v>
       </c>
@@ -31994,7 +31989,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" ht="45">
+    <row r="299" spans="1:12" ht="30">
       <c r="A299" s="1" t="s">
         <v>939</v>
       </c>
@@ -32046,7 +32041,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12" ht="30">
+    <row r="301" spans="1:12">
       <c r="A301" s="1" t="s">
         <v>937</v>
       </c>
@@ -32072,7 +32067,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" ht="30">
+    <row r="302" spans="1:12">
       <c r="A302" s="1" t="s">
         <v>936</v>
       </c>
@@ -32098,7 +32093,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="75">
+    <row r="303" spans="1:12" ht="45">
       <c r="A303" s="1" t="s">
         <v>935</v>
       </c>
@@ -32150,7 +32145,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12" ht="75">
+    <row r="305" spans="1:12" ht="45">
       <c r="A305" s="1" t="s">
         <v>933</v>
       </c>
@@ -32202,7 +32197,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12" ht="90">
+    <row r="307" spans="1:12" ht="60">
       <c r="A307" s="1" t="s">
         <v>931</v>
       </c>
@@ -32228,7 +32223,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="60">
+    <row r="308" spans="1:12" ht="45">
       <c r="A308" s="1" t="s">
         <v>930</v>
       </c>
@@ -32280,7 +32275,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12" ht="30">
+    <row r="310" spans="1:12">
       <c r="A310" s="1" t="s">
         <v>928</v>
       </c>
@@ -32618,7 +32613,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12" ht="30">
+    <row r="323" spans="1:12">
       <c r="A323" s="1" t="s">
         <v>915</v>
       </c>
@@ -32644,7 +32639,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12" ht="180">
+    <row r="324" spans="1:12" ht="105">
       <c r="A324" s="1" t="s">
         <v>914</v>
       </c>
@@ -32696,7 +32691,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="30">
+    <row r="326" spans="1:12">
       <c r="A326" s="1" t="s">
         <v>912</v>
       </c>
@@ -32722,7 +32717,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12" ht="255">
+    <row r="327" spans="1:12" ht="165">
       <c r="A327" s="1" t="s">
         <v>911</v>
       </c>
@@ -32748,7 +32743,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="45">
+    <row r="328" spans="1:12" ht="30">
       <c r="A328" s="1" t="s">
         <v>910</v>
       </c>
@@ -32774,7 +32769,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12" ht="30">
+    <row r="329" spans="1:12">
       <c r="A329" s="1" t="s">
         <v>909</v>
       </c>
@@ -32800,7 +32795,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12" ht="45">
+    <row r="330" spans="1:12" ht="30">
       <c r="A330" s="1" t="s">
         <v>908</v>
       </c>
@@ -32904,7 +32899,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12" ht="45">
+    <row r="334" spans="1:12" ht="30">
       <c r="A334" s="1" t="s">
         <v>904</v>
       </c>
@@ -32982,7 +32977,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12" ht="30">
+    <row r="337" spans="1:12">
       <c r="A337" s="1" t="s">
         <v>902</v>
       </c>
@@ -33008,7 +33003,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12" ht="30">
+    <row r="338" spans="1:12">
       <c r="A338" s="1" t="s">
         <v>901</v>
       </c>
@@ -33034,7 +33029,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="30">
+    <row r="339" spans="1:12">
       <c r="A339" s="1" t="s">
         <v>900</v>
       </c>
@@ -33372,7 +33367,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="75">
+    <row r="352" spans="1:12" ht="45">
       <c r="A352" s="1" t="s">
         <v>887</v>
       </c>
@@ -33398,7 +33393,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12" ht="60">
+    <row r="353" spans="1:12" ht="30">
       <c r="A353" s="1" t="s">
         <v>886</v>
       </c>
@@ -33528,7 +33523,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12" ht="45">
+    <row r="358" spans="1:12" ht="30">
       <c r="A358" s="1" t="s">
         <v>881</v>
       </c>
@@ -33632,7 +33627,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12" ht="105">
+    <row r="362" spans="1:12" ht="60">
       <c r="A362" s="1" t="s">
         <v>877</v>
       </c>
@@ -33658,7 +33653,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12" ht="60">
+    <row r="363" spans="1:12" ht="30">
       <c r="A363" s="1" t="s">
         <v>858</v>
       </c>
@@ -33684,7 +33679,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12" ht="45">
+    <row r="364" spans="1:12" ht="30">
       <c r="A364" s="1" t="s">
         <v>857</v>
       </c>
@@ -33736,7 +33731,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12" ht="30">
+    <row r="366" spans="1:12">
       <c r="A366" s="1" t="s">
         <v>855</v>
       </c>
@@ -33762,7 +33757,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12" ht="45">
+    <row r="367" spans="1:12" ht="30">
       <c r="A367" s="1" t="s">
         <v>876</v>
       </c>
@@ -33788,7 +33783,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="30">
+    <row r="368" spans="1:12">
       <c r="A368" s="1" t="s">
         <v>875</v>
       </c>
@@ -33814,7 +33809,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12" ht="45">
+    <row r="369" spans="1:12" ht="30">
       <c r="A369" s="1" t="s">
         <v>874</v>
       </c>
@@ -33840,7 +33835,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12" ht="30">
+    <row r="370" spans="1:12">
       <c r="A370" s="1" t="s">
         <v>873</v>
       </c>
@@ -33866,7 +33861,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12" ht="60">
+    <row r="371" spans="1:12" ht="30">
       <c r="A371" s="1" t="s">
         <v>872</v>
       </c>
@@ -33892,7 +33887,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12" ht="75">
+    <row r="372" spans="1:12" ht="45">
       <c r="A372" s="1" t="s">
         <v>871</v>
       </c>
@@ -33970,7 +33965,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12" ht="60">
+    <row r="375" spans="1:12" ht="30">
       <c r="A375" s="1" t="s">
         <v>868</v>
       </c>
@@ -33996,7 +33991,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12" ht="30">
+    <row r="376" spans="1:12">
       <c r="A376" s="1" t="s">
         <v>867</v>
       </c>
@@ -34022,7 +34017,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12" ht="30">
+    <row r="377" spans="1:12">
       <c r="A377" s="1" t="s">
         <v>866</v>
       </c>
@@ -34048,7 +34043,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12" ht="30">
+    <row r="378" spans="1:12">
       <c r="A378" s="1" t="s">
         <v>865</v>
       </c>
@@ -34074,7 +34069,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12" ht="30">
+    <row r="379" spans="1:12">
       <c r="A379" s="1" t="s">
         <v>864</v>
       </c>
@@ -34256,7 +34251,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="60">
+    <row r="386" spans="1:12" ht="30">
       <c r="A386" s="1" t="s">
         <v>858</v>
       </c>
@@ -34282,7 +34277,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="45">
+    <row r="387" spans="1:12" ht="30">
       <c r="A387" s="1" t="s">
         <v>857</v>
       </c>
@@ -34308,7 +34303,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="30">
+    <row r="388" spans="1:12">
       <c r="A388" s="1" t="s">
         <v>855</v>
       </c>
@@ -34334,7 +34329,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="30">
+    <row r="389" spans="1:12">
       <c r="A389" s="1" t="s">
         <v>854</v>
       </c>
@@ -34438,7 +34433,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="45">
+    <row r="393" spans="1:12" ht="30">
       <c r="A393" s="1" t="s">
         <v>850</v>
       </c>
@@ -34464,7 +34459,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="30">
+    <row r="394" spans="1:12">
       <c r="A394" s="1" t="s">
         <v>849</v>
       </c>
@@ -34672,7 +34667,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12" ht="30">
+    <row r="402" spans="1:12">
       <c r="A402" s="1" t="s">
         <v>842</v>
       </c>
@@ -34776,7 +34771,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12" ht="75">
+    <row r="406" spans="1:12" ht="45">
       <c r="A406" s="1" t="s">
         <v>838</v>
       </c>
@@ -34802,7 +34797,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12" ht="30">
+    <row r="407" spans="1:12">
       <c r="A407" s="1" t="s">
         <v>837</v>
       </c>
@@ -34828,7 +34823,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12" ht="60">
+    <row r="408" spans="1:12" ht="30">
       <c r="A408" s="1" t="s">
         <v>836</v>
       </c>
@@ -34854,7 +34849,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12" ht="30">
+    <row r="409" spans="1:12">
       <c r="A409" s="1" t="s">
         <v>835</v>
       </c>
@@ -34906,7 +34901,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12" ht="45">
+    <row r="411" spans="1:12" ht="30">
       <c r="A411" s="1" t="s">
         <v>833</v>
       </c>
@@ -35010,7 +35005,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12" ht="30">
+    <row r="415" spans="1:12">
       <c r="A415" s="1" t="s">
         <v>829</v>
       </c>
@@ -35088,7 +35083,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="30">
+    <row r="418" spans="1:12">
       <c r="A418" s="1" t="s">
         <v>826</v>
       </c>
@@ -35114,7 +35109,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="30">
+    <row r="419" spans="1:12">
       <c r="A419" s="1" t="s">
         <v>825</v>
       </c>
@@ -35192,7 +35187,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="75">
+    <row r="422" spans="1:12" ht="45">
       <c r="A422" s="1" t="s">
         <v>823</v>
       </c>
@@ -35218,7 +35213,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="30">
+    <row r="423" spans="1:12">
       <c r="A423" s="1" t="s">
         <v>822</v>
       </c>
@@ -35244,7 +35239,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="150">
+    <row r="424" spans="1:12" ht="90">
       <c r="A424" s="1" t="s">
         <v>821</v>
       </c>
@@ -35270,7 +35265,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="45">
+    <row r="425" spans="1:12" ht="30">
       <c r="A425" s="1" t="s">
         <v>820</v>
       </c>
@@ -35426,7 +35421,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" ht="30">
+    <row r="431" spans="1:12">
       <c r="A431" s="1" t="s">
         <v>814</v>
       </c>
@@ -35504,7 +35499,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" ht="60">
+    <row r="434" spans="1:12" ht="30">
       <c r="A434" s="1" t="s">
         <v>811</v>
       </c>
@@ -35530,7 +35525,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" ht="45">
+    <row r="435" spans="1:12" ht="30">
       <c r="A435" s="1" t="s">
         <v>810</v>
       </c>
@@ -35556,7 +35551,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" ht="30">
+    <row r="436" spans="1:12">
       <c r="A436" s="1" t="s">
         <v>809</v>
       </c>
@@ -35582,7 +35577,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" ht="30">
+    <row r="437" spans="1:12">
       <c r="A437" s="1" t="s">
         <v>788</v>
       </c>
@@ -35712,7 +35707,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="105">
+    <row r="442" spans="1:12" ht="75">
       <c r="A442" s="1" t="s">
         <v>804</v>
       </c>
@@ -35764,7 +35759,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12" ht="45">
+    <row r="444" spans="1:12" ht="30">
       <c r="A444" s="1" t="s">
         <v>802</v>
       </c>
@@ -35842,7 +35837,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" ht="30">
+    <row r="447" spans="1:12">
       <c r="A447" s="1" t="s">
         <v>799</v>
       </c>
@@ -35972,7 +35967,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" ht="45">
+    <row r="452" spans="1:12" ht="30">
       <c r="A452" s="1" t="s">
         <v>794</v>
       </c>
@@ -36024,7 +36019,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" ht="75">
+    <row r="454" spans="1:12" ht="45">
       <c r="A454" s="1" t="s">
         <v>792</v>
       </c>
@@ -36050,7 +36045,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="30">
+    <row r="455" spans="1:12">
       <c r="A455" s="1" t="s">
         <v>791</v>
       </c>
@@ -36076,7 +36071,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" ht="45">
+    <row r="456" spans="1:12" ht="30">
       <c r="A456" s="1" t="s">
         <v>790</v>
       </c>
@@ -36102,7 +36097,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" ht="30">
+    <row r="457" spans="1:12">
       <c r="A457" s="1" t="s">
         <v>789</v>
       </c>
@@ -36128,7 +36123,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12" ht="30">
+    <row r="458" spans="1:12">
       <c r="A458" s="1" t="s">
         <v>788</v>
       </c>
@@ -36154,7 +36149,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" ht="30">
+    <row r="459" spans="1:12">
       <c r="A459" s="1" t="s">
         <v>787</v>
       </c>
@@ -36180,7 +36175,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" ht="30">
+    <row r="460" spans="1:12">
       <c r="A460" s="1" t="s">
         <v>786</v>
       </c>
@@ -36206,7 +36201,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="30">
+    <row r="461" spans="1:12">
       <c r="A461" s="1" t="s">
         <v>785</v>
       </c>
@@ -36232,7 +36227,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="30">
+    <row r="462" spans="1:12">
       <c r="A462" s="1" t="s">
         <v>784</v>
       </c>
@@ -36258,7 +36253,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" ht="45">
+    <row r="463" spans="1:12" ht="30">
       <c r="A463" s="1" t="s">
         <v>783</v>
       </c>
@@ -36388,7 +36383,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" ht="30">
+    <row r="468" spans="1:12">
       <c r="A468" s="1" t="s">
         <v>778</v>
       </c>
@@ -36414,7 +36409,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12" ht="45">
+    <row r="469" spans="1:12" ht="30">
       <c r="A469" s="1" t="s">
         <v>777</v>
       </c>
@@ -36596,7 +36591,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="45">
+    <row r="476" spans="1:12" ht="30">
       <c r="A476" s="1" t="s">
         <v>770</v>
       </c>
@@ -36622,7 +36617,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="60">
+    <row r="477" spans="1:12" ht="45">
       <c r="A477" s="1" t="s">
         <v>769</v>
       </c>
@@ -36882,7 +36877,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" ht="60">
+    <row r="487" spans="1:12" ht="45">
       <c r="A487" s="1" t="s">
         <v>759</v>
       </c>
@@ -37090,7 +37085,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="45">
+    <row r="495" spans="1:12" ht="30">
       <c r="A495" s="1" t="s">
         <v>751</v>
       </c>
@@ -37116,7 +37111,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" ht="60">
+    <row r="496" spans="1:12" ht="45">
       <c r="A496" s="1" t="s">
         <v>750</v>
       </c>
@@ -37168,7 +37163,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" ht="30">
+    <row r="498" spans="1:12">
       <c r="A498" s="1" t="s">
         <v>748</v>
       </c>
@@ -37194,7 +37189,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" ht="90">
+    <row r="499" spans="1:12" ht="60">
       <c r="A499" s="1" t="s">
         <v>747</v>
       </c>
@@ -37246,7 +37241,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="30">
+    <row r="501" spans="1:12">
       <c r="A501" s="1" t="s">
         <v>745</v>
       </c>
@@ -37272,7 +37267,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="45">
+    <row r="502" spans="1:12" ht="30">
       <c r="A502" s="1" t="s">
         <v>744</v>
       </c>
@@ -37298,7 +37293,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" ht="60">
+    <row r="503" spans="1:12" ht="45">
       <c r="A503" s="1" t="s">
         <v>743</v>
       </c>
@@ -37324,7 +37319,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" ht="30">
+    <row r="504" spans="1:12">
       <c r="A504" s="1" t="s">
         <v>742</v>
       </c>
@@ -37350,7 +37345,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="90">
+    <row r="505" spans="1:12" ht="60">
       <c r="A505" s="1" t="s">
         <v>741</v>
       </c>
@@ -37454,7 +37449,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="30">
+    <row r="509" spans="1:12">
       <c r="A509" s="1" t="s">
         <v>737</v>
       </c>
@@ -37506,7 +37501,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="75">
+    <row r="511" spans="1:12" ht="45">
       <c r="A511" s="1" t="s">
         <v>735</v>
       </c>
@@ -37558,7 +37553,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12" ht="120">
+    <row r="513" spans="1:12" ht="75">
       <c r="A513" s="1" t="s">
         <v>733</v>
       </c>
@@ -37584,7 +37579,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12" ht="90">
+    <row r="514" spans="1:12" ht="60">
       <c r="A514" s="1" t="s">
         <v>732</v>
       </c>
@@ -37714,7 +37709,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="30">
+    <row r="519" spans="1:12">
       <c r="A519" s="1" t="s">
         <v>727</v>
       </c>
@@ -37740,7 +37735,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="1:12" ht="30">
+    <row r="520" spans="1:12">
       <c r="A520" s="1" t="s">
         <v>726</v>
       </c>
@@ -37766,7 +37761,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="30">
+    <row r="521" spans="1:12">
       <c r="A521" s="1" t="s">
         <v>725</v>
       </c>
@@ -37818,7 +37813,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" ht="30">
+    <row r="523" spans="1:12">
       <c r="A523" s="1" t="s">
         <v>723</v>
       </c>
@@ -37922,7 +37917,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" ht="30">
+    <row r="527" spans="1:12">
       <c r="A527" s="1" t="s">
         <v>719</v>
       </c>
@@ -37948,7 +37943,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12" ht="30">
+    <row r="528" spans="1:12">
       <c r="A528" s="1" t="s">
         <v>718</v>
       </c>
@@ -38026,7 +38021,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="1:12" ht="30">
+    <row r="531" spans="1:12">
       <c r="A531" s="1" t="s">
         <v>715</v>
       </c>
@@ -38234,7 +38229,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" ht="75">
+    <row r="539" spans="1:12" ht="45">
       <c r="A539" s="1" t="s">
         <v>707</v>
       </c>
@@ -38260,7 +38255,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" ht="30">
+    <row r="540" spans="1:12">
       <c r="A540" s="1" t="s">
         <v>706</v>
       </c>
@@ -38364,7 +38359,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" ht="60">
+    <row r="544" spans="1:12" ht="45">
       <c r="A544" s="1" t="s">
         <v>702</v>
       </c>
@@ -38416,7 +38411,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="45">
+    <row r="546" spans="1:12" ht="30">
       <c r="A546" s="1" t="s">
         <v>700</v>
       </c>
@@ -38468,7 +38463,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" ht="30">
+    <row r="548" spans="1:12">
       <c r="A548" s="1" t="s">
         <v>698</v>
       </c>
@@ -38494,7 +38489,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" ht="30">
+    <row r="549" spans="1:12">
       <c r="A549" s="1" t="s">
         <v>697</v>
       </c>
@@ -38520,7 +38515,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12" ht="30">
+    <row r="550" spans="1:12">
       <c r="A550" s="1" t="s">
         <v>696</v>
       </c>
@@ -38546,7 +38541,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" ht="30">
+    <row r="551" spans="1:12">
       <c r="A551" s="1" t="s">
         <v>695</v>
       </c>
@@ -38624,7 +38619,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" ht="30">
+    <row r="554" spans="1:12">
       <c r="A554" s="1" t="s">
         <v>692</v>
       </c>
@@ -38650,7 +38645,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="45">
+    <row r="555" spans="1:12" ht="30">
       <c r="A555" s="1" t="s">
         <v>691</v>
       </c>
@@ -38676,7 +38671,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
-    <row r="556" spans="1:12" ht="30">
+    <row r="556" spans="1:12">
       <c r="A556" s="1" t="s">
         <v>690</v>
       </c>
@@ -38702,7 +38697,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" ht="30">
+    <row r="557" spans="1:12">
       <c r="A557" s="1" t="s">
         <v>689</v>
       </c>
@@ -38754,7 +38749,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" ht="90">
+    <row r="559" spans="1:12" ht="60">
       <c r="A559" s="1" t="s">
         <v>687</v>
       </c>
@@ -38780,7 +38775,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12" ht="45">
+    <row r="560" spans="1:12" ht="30">
       <c r="A560" s="1" t="s">
         <v>686</v>
       </c>
@@ -38832,7 +38827,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" ht="75">
+    <row r="562" spans="1:12" ht="45">
       <c r="A562" s="1" t="s">
         <v>684</v>
       </c>
@@ -38910,7 +38905,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="1:12" ht="30">
+    <row r="565" spans="1:12">
       <c r="A565" s="1" t="s">
         <v>681</v>
       </c>
@@ -38936,7 +38931,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" ht="45">
+    <row r="566" spans="1:12" ht="30">
       <c r="A566" s="1" t="s">
         <v>680</v>
       </c>
@@ -38962,7 +38957,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
-    <row r="567" spans="1:12" ht="30">
+    <row r="567" spans="1:12">
       <c r="A567" s="1" t="s">
         <v>679</v>
       </c>
@@ -38988,7 +38983,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12" ht="30">
+    <row r="568" spans="1:12">
       <c r="A568" s="1" t="s">
         <v>678</v>
       </c>
@@ -39014,7 +39009,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" ht="75">
+    <row r="569" spans="1:12" ht="45">
       <c r="A569" s="1" t="s">
         <v>677</v>
       </c>
@@ -39092,7 +39087,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" ht="75">
+    <row r="572" spans="1:12" ht="45">
       <c r="A572" s="1" t="s">
         <v>674</v>
       </c>
@@ -39118,7 +39113,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
-    <row r="573" spans="1:12" ht="75">
+    <row r="573" spans="1:12" ht="45">
       <c r="A573" s="1" t="s">
         <v>673</v>
       </c>
@@ -39196,7 +39191,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" ht="30">
+    <row r="576" spans="1:12">
       <c r="A576" s="1" t="s">
         <v>670</v>
       </c>
@@ -39222,7 +39217,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="1:12" ht="30">
+    <row r="577" spans="1:12">
       <c r="A577" s="1" t="s">
         <v>669</v>
       </c>
@@ -39274,7 +39269,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12" ht="30">
+    <row r="579" spans="1:12">
       <c r="A579" s="1" t="s">
         <v>667</v>
       </c>
@@ -39326,7 +39321,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="1:12" ht="30">
+    <row r="581" spans="1:12">
       <c r="A581" s="1" t="s">
         <v>665</v>
       </c>
@@ -39352,7 +39347,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="1:12" ht="30">
+    <row r="582" spans="1:12">
       <c r="A582" s="1" t="s">
         <v>664</v>
       </c>
@@ -39404,7 +39399,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="1:12" ht="45">
+    <row r="584" spans="1:12" ht="30">
       <c r="A584" s="1" t="s">
         <v>662</v>
       </c>
@@ -39430,7 +39425,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="1:12" ht="105">
+    <row r="585" spans="1:12" ht="60">
       <c r="A585" s="1" t="s">
         <v>661</v>
       </c>
@@ -39482,7 +39477,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" ht="135">
+    <row r="587" spans="1:12" ht="90">
       <c r="A587" s="1" t="s">
         <v>659</v>
       </c>
@@ -39846,7 +39841,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="1:12" ht="45">
+    <row r="601" spans="1:12" ht="30">
       <c r="A601" s="1" t="s">
         <v>645</v>
       </c>
@@ -39872,7 +39867,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="1:12" ht="45">
+    <row r="602" spans="1:12" ht="30">
       <c r="A602" s="1" t="s">
         <v>644</v>
       </c>
@@ -39950,7 +39945,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="1:12" ht="60">
+    <row r="605" spans="1:12" ht="30">
       <c r="A605" s="1" t="s">
         <v>641</v>
       </c>
@@ -40080,7 +40075,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="1:12" ht="45">
+    <row r="610" spans="1:12" ht="30">
       <c r="A610" s="1" t="s">
         <v>636</v>
       </c>
@@ -40106,7 +40101,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="1:12" ht="30">
+    <row r="611" spans="1:12">
       <c r="A611" s="1" t="s">
         <v>635</v>
       </c>
@@ -40132,7 +40127,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="1:12" ht="30">
+    <row r="612" spans="1:12">
       <c r="A612" s="1" t="s">
         <v>634</v>
       </c>
@@ -40184,7 +40179,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="2"/>
     </row>
-    <row r="614" spans="1:12" ht="30">
+    <row r="614" spans="1:12">
       <c r="A614" s="1" t="s">
         <v>632</v>
       </c>
@@ -40236,7 +40231,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="1:12" ht="30">
+    <row r="616" spans="1:12">
       <c r="A616" s="1" t="s">
         <v>630</v>
       </c>
@@ -40314,7 +40309,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="1:12" ht="60">
+    <row r="619" spans="1:12" ht="45">
       <c r="A619" s="1" t="s">
         <v>627</v>
       </c>
@@ -40418,7 +40413,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
     </row>
-    <row r="623" spans="1:12" ht="60">
+    <row r="623" spans="1:12" ht="45">
       <c r="A623" s="1" t="s">
         <v>623</v>
       </c>
@@ -40470,7 +40465,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="1:12" ht="60">
+    <row r="625" spans="1:12" ht="45">
       <c r="A625" s="1" t="s">
         <v>621</v>
       </c>
@@ -40574,7 +40569,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="1:12" ht="30">
+    <row r="629" spans="1:12">
       <c r="A629" s="1" t="s">
         <v>617</v>
       </c>
@@ -40704,7 +40699,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="1:12" ht="45">
+    <row r="634" spans="1:12" ht="30">
       <c r="A634" s="1" t="s">
         <v>612</v>
       </c>
@@ -40730,7 +40725,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="2"/>
     </row>
-    <row r="635" spans="1:12" ht="45">
+    <row r="635" spans="1:12" ht="30">
       <c r="A635" s="1" t="s">
         <v>611</v>
       </c>
@@ -40808,7 +40803,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="1:12" ht="45">
+    <row r="638" spans="1:12" ht="30">
       <c r="A638" s="1" t="s">
         <v>608</v>
       </c>
@@ -40886,7 +40881,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="1:12" ht="30">
+    <row r="641" spans="1:12">
       <c r="A641" s="1" t="s">
         <v>605</v>
       </c>
@@ -41042,7 +41037,7 @@
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="1:12" ht="45">
+    <row r="647" spans="1:12" ht="30">
       <c r="A647" s="1" t="s">
         <v>599</v>
       </c>
@@ -41094,7 +41089,7 @@
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="1:12" ht="30">
+    <row r="649" spans="1:12">
       <c r="A649" s="1" t="s">
         <v>597</v>
       </c>
@@ -41146,7 +41141,7 @@
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="1:12" ht="30">
+    <row r="651" spans="1:12">
       <c r="A651" s="1" t="s">
         <v>595</v>
       </c>
@@ -41198,7 +41193,7 @@
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
-    <row r="653" spans="1:12" ht="30">
+    <row r="653" spans="1:12">
       <c r="A653" s="1" t="s">
         <v>593</v>
       </c>
@@ -41250,7 +41245,7 @@
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
     </row>
-    <row r="655" spans="1:12" ht="45">
+    <row r="655" spans="1:12" ht="30">
       <c r="A655" s="1" t="s">
         <v>591</v>
       </c>
@@ -41302,7 +41297,7 @@
       <c r="K656" s="2"/>
       <c r="L656" s="2"/>
     </row>
-    <row r="657" spans="1:12" ht="90">
+    <row r="657" spans="1:12" ht="60">
       <c r="A657" s="1" t="s">
         <v>589</v>
       </c>
@@ -41354,7 +41349,7 @@
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
     </row>
-    <row r="659" spans="1:12" ht="105">
+    <row r="659" spans="1:12" ht="60">
       <c r="A659" s="1" t="s">
         <v>588</v>
       </c>
@@ -41380,7 +41375,7 @@
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
     </row>
-    <row r="660" spans="1:12" ht="90">
+    <row r="660" spans="1:12" ht="60">
       <c r="A660" s="1" t="s">
         <v>587</v>
       </c>
@@ -41484,7 +41479,7 @@
       <c r="K663" s="2"/>
       <c r="L663" s="2"/>
     </row>
-    <row r="664" spans="1:12" ht="30">
+    <row r="664" spans="1:12">
       <c r="A664" s="1" t="s">
         <v>583</v>
       </c>
@@ -41536,7 +41531,7 @@
       <c r="K665" s="2"/>
       <c r="L665" s="2"/>
     </row>
-    <row r="666" spans="1:12" ht="45">
+    <row r="666" spans="1:12" ht="30">
       <c r="A666" s="1" t="s">
         <v>581</v>
       </c>
@@ -41640,7 +41635,7 @@
       <c r="K669" s="2"/>
       <c r="L669" s="2"/>
     </row>
-    <row r="670" spans="1:12" ht="30">
+    <row r="670" spans="1:12">
       <c r="A670" s="1" t="s">
         <v>577</v>
       </c>
@@ -41744,7 +41739,7 @@
       <c r="K673" s="2"/>
       <c r="L673" s="2"/>
     </row>
-    <row r="674" spans="1:12" ht="30">
+    <row r="674" spans="1:12">
       <c r="A674" s="1" t="s">
         <v>574</v>
       </c>
@@ -41770,7 +41765,7 @@
       <c r="K674" s="2"/>
       <c r="L674" s="2"/>
     </row>
-    <row r="675" spans="1:12" ht="60">
+    <row r="675" spans="1:12" ht="45">
       <c r="A675" s="1" t="s">
         <v>573</v>
       </c>
@@ -41796,7 +41791,7 @@
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
     </row>
-    <row r="676" spans="1:12" ht="45">
+    <row r="676" spans="1:12" ht="30">
       <c r="A676" s="1" t="s">
         <v>572</v>
       </c>
@@ -41822,7 +41817,7 @@
       <c r="K676" s="2"/>
       <c r="L676" s="2"/>
     </row>
-    <row r="677" spans="1:12" ht="45">
+    <row r="677" spans="1:12" ht="30">
       <c r="A677" s="1" t="s">
         <v>571</v>
       </c>
@@ -41874,7 +41869,7 @@
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
     </row>
-    <row r="679" spans="1:12" ht="30">
+    <row r="679" spans="1:12">
       <c r="A679" s="1" t="s">
         <v>569</v>
       </c>
@@ -41926,7 +41921,7 @@
       <c r="K680" s="2"/>
       <c r="L680" s="2"/>
     </row>
-    <row r="681" spans="1:12" ht="60">
+    <row r="681" spans="1:12" ht="30">
       <c r="A681" s="1" t="s">
         <v>567</v>
       </c>
@@ -41952,7 +41947,7 @@
       <c r="K681" s="2"/>
       <c r="L681" s="2"/>
     </row>
-    <row r="682" spans="1:12" ht="30">
+    <row r="682" spans="1:12">
       <c r="A682" s="1" t="s">
         <v>566</v>
       </c>
@@ -41978,7 +41973,7 @@
       <c r="K682" s="2"/>
       <c r="L682" s="2"/>
     </row>
-    <row r="683" spans="1:12" ht="30">
+    <row r="683" spans="1:12">
       <c r="A683" s="1" t="s">
         <v>565</v>
       </c>
@@ -42030,7 +42025,7 @@
       <c r="K684" s="2"/>
       <c r="L684" s="2"/>
     </row>
-    <row r="685" spans="1:12" ht="30">
+    <row r="685" spans="1:12">
       <c r="A685" s="1" t="s">
         <v>563</v>
       </c>
@@ -42160,7 +42155,7 @@
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="1:12" ht="30">
+    <row r="690" spans="1:12">
       <c r="A690" s="1" t="s">
         <v>558</v>
       </c>
@@ -42212,7 +42207,7 @@
       <c r="K691" s="2"/>
       <c r="L691" s="2"/>
     </row>
-    <row r="692" spans="1:12" ht="30">
+    <row r="692" spans="1:12">
       <c r="A692" s="1" t="s">
         <v>556</v>
       </c>
@@ -42238,7 +42233,7 @@
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
     </row>
-    <row r="693" spans="1:12" ht="30">
+    <row r="693" spans="1:12">
       <c r="A693" s="1" t="s">
         <v>555</v>
       </c>
@@ -42420,7 +42415,7 @@
       <c r="K699" s="2"/>
       <c r="L699" s="2"/>
     </row>
-    <row r="700" spans="1:12" ht="30">
+    <row r="700" spans="1:12">
       <c r="A700" s="1" t="s">
         <v>548</v>
       </c>
@@ -42446,7 +42441,7 @@
       <c r="K700" s="2"/>
       <c r="L700" s="2"/>
     </row>
-    <row r="701" spans="1:12" ht="30">
+    <row r="701" spans="1:12">
       <c r="A701" s="1" t="s">
         <v>547</v>
       </c>
@@ -42472,7 +42467,7 @@
       <c r="K701" s="2"/>
       <c r="L701" s="2"/>
     </row>
-    <row r="702" spans="1:12" ht="75">
+    <row r="702" spans="1:12" ht="45">
       <c r="A702" s="1" t="s">
         <v>546</v>
       </c>
@@ -42524,7 +42519,7 @@
       <c r="K703" s="2"/>
       <c r="L703" s="2"/>
     </row>
-    <row r="704" spans="1:12" ht="45">
+    <row r="704" spans="1:12" ht="30">
       <c r="A704" s="1" t="s">
         <v>544</v>
       </c>
@@ -42680,7 +42675,7 @@
       <c r="K709" s="2"/>
       <c r="L709" s="2"/>
     </row>
-    <row r="710" spans="1:12" ht="75">
+    <row r="710" spans="1:12" ht="45">
       <c r="A710" s="1" t="s">
         <v>538</v>
       </c>
@@ -42758,7 +42753,7 @@
       <c r="K712" s="2"/>
       <c r="L712" s="2"/>
     </row>
-    <row r="713" spans="1:12" ht="60">
+    <row r="713" spans="1:12" ht="45">
       <c r="A713" s="1" t="s">
         <v>536</v>
       </c>
@@ -42810,7 +42805,7 @@
       <c r="K714" s="2"/>
       <c r="L714" s="2"/>
     </row>
-    <row r="715" spans="1:12" ht="30">
+    <row r="715" spans="1:12">
       <c r="A715" s="1" t="s">
         <v>534</v>
       </c>
@@ -42836,7 +42831,7 @@
       <c r="K715" s="2"/>
       <c r="L715" s="2"/>
     </row>
-    <row r="716" spans="1:12" ht="45">
+    <row r="716" spans="1:12" ht="30">
       <c r="A716" s="1" t="s">
         <v>533</v>
       </c>
@@ -42862,7 +42857,7 @@
       <c r="K716" s="2"/>
       <c r="L716" s="2"/>
     </row>
-    <row r="717" spans="1:12" ht="30">
+    <row r="717" spans="1:12">
       <c r="A717" s="1" t="s">
         <v>531</v>
       </c>
@@ -42888,7 +42883,7 @@
       <c r="K717" s="2"/>
       <c r="L717" s="2"/>
     </row>
-    <row r="718" spans="1:12" ht="45">
+    <row r="718" spans="1:12" ht="30">
       <c r="A718" s="1" t="s">
         <v>530</v>
       </c>
@@ -42940,7 +42935,7 @@
       <c r="K719" s="2"/>
       <c r="L719" s="2"/>
     </row>
-    <row r="720" spans="1:12" ht="45">
+    <row r="720" spans="1:12" ht="30">
       <c r="A720" s="1" t="s">
         <v>528</v>
       </c>
@@ -42966,7 +42961,7 @@
       <c r="K720" s="2"/>
       <c r="L720" s="2"/>
     </row>
-    <row r="721" spans="1:12" ht="45">
+    <row r="721" spans="1:12" ht="30">
       <c r="A721" s="1" t="s">
         <v>526</v>
       </c>
@@ -42992,7 +42987,7 @@
       <c r="K721" s="2"/>
       <c r="L721" s="2"/>
     </row>
-    <row r="722" spans="1:12" ht="90">
+    <row r="722" spans="1:12" ht="60">
       <c r="A722" s="1" t="s">
         <v>525</v>
       </c>
@@ -43148,7 +43143,7 @@
       <c r="K727" s="2"/>
       <c r="L727" s="2"/>
     </row>
-    <row r="728" spans="1:12" ht="30">
+    <row r="728" spans="1:12">
       <c r="A728" s="1" t="s">
         <v>519</v>
       </c>
@@ -43304,7 +43299,7 @@
       <c r="K733" s="2"/>
       <c r="L733" s="2"/>
     </row>
-    <row r="734" spans="1:12" ht="30">
+    <row r="734" spans="1:12">
       <c r="A734" s="1" t="s">
         <v>513</v>
       </c>
@@ -43330,7 +43325,7 @@
       <c r="K734" s="2"/>
       <c r="L734" s="2"/>
     </row>
-    <row r="735" spans="1:12" ht="30">
+    <row r="735" spans="1:12">
       <c r="A735" s="1" t="s">
         <v>512</v>
       </c>
@@ -43382,7 +43377,7 @@
       <c r="K736" s="2"/>
       <c r="L736" s="2"/>
     </row>
-    <row r="737" spans="1:12" ht="60">
+    <row r="737" spans="1:12" ht="45">
       <c r="A737" s="1" t="s">
         <v>510</v>
       </c>
@@ -43434,7 +43429,7 @@
       <c r="K738" s="2"/>
       <c r="L738" s="2"/>
     </row>
-    <row r="739" spans="1:12" ht="45">
+    <row r="739" spans="1:12" ht="30">
       <c r="A739" s="1" t="s">
         <v>508</v>
       </c>
@@ -43460,7 +43455,7 @@
       <c r="K739" s="2"/>
       <c r="L739" s="2"/>
     </row>
-    <row r="740" spans="1:12" ht="45">
+    <row r="740" spans="1:12" ht="30">
       <c r="A740" s="1" t="s">
         <v>507</v>
       </c>
@@ -43486,7 +43481,7 @@
       <c r="K740" s="2"/>
       <c r="L740" s="2"/>
     </row>
-    <row r="741" spans="1:12" ht="45">
+    <row r="741" spans="1:12" ht="30">
       <c r="A741" s="1" t="s">
         <v>506</v>
       </c>
@@ -43512,7 +43507,7 @@
       <c r="K741" s="2"/>
       <c r="L741" s="2"/>
     </row>
-    <row r="742" spans="1:12" ht="45">
+    <row r="742" spans="1:12" ht="30">
       <c r="A742" s="1" t="s">
         <v>505</v>
       </c>
@@ -43616,7 +43611,7 @@
       <c r="K745" s="2"/>
       <c r="L745" s="2"/>
     </row>
-    <row r="746" spans="1:12" ht="30">
+    <row r="746" spans="1:12">
       <c r="A746" s="1" t="s">
         <v>501</v>
       </c>
@@ -43746,7 +43741,7 @@
       <c r="K750" s="2"/>
       <c r="L750" s="2"/>
     </row>
-    <row r="751" spans="1:12" ht="30">
+    <row r="751" spans="1:12">
       <c r="A751" s="1" t="s">
         <v>496</v>
       </c>
@@ -43798,7 +43793,7 @@
       <c r="K752" s="2"/>
       <c r="L752" s="2"/>
     </row>
-    <row r="753" spans="1:12" ht="30">
+    <row r="753" spans="1:12">
       <c r="A753" s="1" t="s">
         <v>494</v>
       </c>
@@ -43850,7 +43845,7 @@
       <c r="K754" s="2"/>
       <c r="L754" s="2"/>
     </row>
-    <row r="755" spans="1:12" ht="30">
+    <row r="755" spans="1:12">
       <c r="A755" s="1" t="s">
         <v>492</v>
       </c>
@@ -44032,7 +44027,7 @@
       <c r="K761" s="2"/>
       <c r="L761" s="2"/>
     </row>
-    <row r="762" spans="1:12" ht="45">
+    <row r="762" spans="1:12" ht="30">
       <c r="A762" s="1" t="s">
         <v>486</v>
       </c>
@@ -44084,7 +44079,7 @@
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
     </row>
-    <row r="764" spans="1:12" ht="45">
+    <row r="764" spans="1:12" ht="30">
       <c r="A764" s="1" t="s">
         <v>484</v>
       </c>
@@ -44110,7 +44105,7 @@
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
     </row>
-    <row r="765" spans="1:12" ht="30">
+    <row r="765" spans="1:12">
       <c r="A765" s="1" t="s">
         <v>483</v>
       </c>
@@ -44318,7 +44313,7 @@
       <c r="K772" s="2"/>
       <c r="L772" s="2"/>
     </row>
-    <row r="773" spans="1:12" ht="30">
+    <row r="773" spans="1:12">
       <c r="A773" s="1" t="s">
         <v>475</v>
       </c>
@@ -44448,7 +44443,7 @@
       <c r="K777" s="2"/>
       <c r="L777" s="2"/>
     </row>
-    <row r="778" spans="1:12" ht="45">
+    <row r="778" spans="1:12" ht="30">
       <c r="A778" s="1" t="s">
         <v>470</v>
       </c>
@@ -44474,7 +44469,7 @@
       <c r="K778" s="2"/>
       <c r="L778" s="2"/>
     </row>
-    <row r="779" spans="1:12" ht="45">
+    <row r="779" spans="1:12" ht="30">
       <c r="A779" s="1" t="s">
         <v>469</v>
       </c>
@@ -44500,7 +44495,7 @@
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
     </row>
-    <row r="780" spans="1:12" ht="45">
+    <row r="780" spans="1:12" ht="30">
       <c r="A780" s="1" t="s">
         <v>468</v>
       </c>
@@ -44526,7 +44521,7 @@
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
     </row>
-    <row r="781" spans="1:12" ht="30">
+    <row r="781" spans="1:12">
       <c r="A781" s="1" t="s">
         <v>467</v>
       </c>
@@ -44552,7 +44547,7 @@
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
     </row>
-    <row r="782" spans="1:12" ht="60">
+    <row r="782" spans="1:12" ht="30">
       <c r="A782" s="1" t="s">
         <v>466</v>
       </c>
@@ -44578,7 +44573,7 @@
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
     </row>
-    <row r="783" spans="1:12" ht="45">
+    <row r="783" spans="1:12" ht="30">
       <c r="A783" s="1" t="s">
         <v>465</v>
       </c>
@@ -44734,7 +44729,7 @@
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
     </row>
-    <row r="789" spans="1:12" ht="30">
+    <row r="789" spans="1:12">
       <c r="A789" s="1" t="s">
         <v>459</v>
       </c>
@@ -44760,7 +44755,7 @@
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
     </row>
-    <row r="790" spans="1:12" ht="45">
+    <row r="790" spans="1:12" ht="30">
       <c r="A790" s="1" t="s">
         <v>458</v>
       </c>
@@ -44812,7 +44807,7 @@
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
     </row>
-    <row r="792" spans="1:12" ht="30">
+    <row r="792" spans="1:12">
       <c r="A792" s="1" t="s">
         <v>456</v>
       </c>
@@ -44890,7 +44885,7 @@
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
     </row>
-    <row r="795" spans="1:12" ht="60">
+    <row r="795" spans="1:12" ht="45">
       <c r="A795" s="1" t="s">
         <v>453</v>
       </c>

--- a/Company Sentiments.xlsx
+++ b/Company Sentiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7485" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7485" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="Social" sheetId="11" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="Volkswagen Sentiments" sheetId="6" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Employees Reviews'!$A$1:$F$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Fiat Sentiments'!$A$2:$G$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Ford Sentiments'!$A$2:$M$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">GMSentimentsLinkedin!$A$2:$F$795</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Honda Sentiments'!$A$2:$G$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">NissanSentimentsLinkedin!$A$2:$F$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Social!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Social!$A$1:$F$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ToyotaSentimentsLinkedin!$A$2:$F$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Volkswagen Sentiments'!$A$2:$G$59</definedName>
   </definedNames>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6982" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6673" uniqueCount="1249">
   <si>
     <t xml:space="preserve"> Review </t>
   </si>
@@ -3898,46 +3899,13 @@
   <si>
     <t>Suzuki Motor Corp</t>
   </si>
-  <si>
-    <t>Q1 2009</t>
-  </si>
-  <si>
-    <t>Q2 2010</t>
-  </si>
-  <si>
-    <t>Q4 2010</t>
-  </si>
-  <si>
-    <t>Q3 2010</t>
-  </si>
-  <si>
-    <t>Q1 2010</t>
-  </si>
-  <si>
-    <t>Q2 2008</t>
-  </si>
-  <si>
-    <t>Q3 2008</t>
-  </si>
-  <si>
-    <t>Q4 2008</t>
-  </si>
-  <si>
-    <t>Q4 2009</t>
-  </si>
-  <si>
-    <t>Q2 2009</t>
-  </si>
-  <si>
-    <t>Q3 2009</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -4601,13 +4569,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4976,7 +4944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4984,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,8 +5323,1016 @@
         <v>48</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.2369</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0.378</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C27" s="33">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0.4017</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C30" s="33">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C31" s="31">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C32" s="33">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0.313</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0.2848</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C35" s="33">
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C37" s="31">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C38" s="33">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.111</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C41" s="33">
+        <v>0.4708</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C43" s="31">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C44" s="33">
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C45" s="33">
+        <v>0.4259</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C46" s="33">
+        <v>0.378</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C47" s="33">
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C48" s="33">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C49" s="33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C50" s="33">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C51" s="33">
+        <v>0.2495</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C52" s="31">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C53" s="33">
+        <v>0.2954</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C54" s="18">
+        <v>0.3347</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C55" s="31">
+        <v>0.2848</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C56" s="33">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C57" s="18">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C58" s="31">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C59" s="33">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0.111</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C62" s="33">
+        <v>0.46839999999999993</v>
+      </c>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C64" s="31">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C65" s="33">
+        <v>0.29920000000000002</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C66" s="33">
+        <v>0.2369</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C67" s="33">
+        <v>0.378</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C68" s="33">
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C69" s="33">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C70" s="33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C71" s="33">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C72" s="33">
+        <v>0.1986</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C74" s="33">
+        <v>0.2954</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C75" s="18">
+        <v>0.313</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C76" s="31">
+        <v>0.2848</v>
+      </c>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C77" s="33">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C78" s="18">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C79" s="31">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C80" s="33">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C81" s="18">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C82" s="30">
+        <v>0.111</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C83" s="33">
+        <v>0.46839999999999993</v>
+      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C84" s="18">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C85" s="31">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F22"/>
+  <autoFilter ref="A1:F85"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6314,12 +7290,12 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -13008,12 +13984,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -21293,10 +22269,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21335,13 +22311,13 @@
       <c r="B2" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C2" s="36">
-        <v>0</v>
+      <c r="C2" s="34">
+        <v>0.44880000000000003</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>1249</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -21351,13 +22327,13 @@
       <c r="B3" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C3" s="36">
-        <v>0.50150000000000006</v>
+      <c r="C3" s="34">
+        <v>0.23655454545454546</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>1229</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -21367,13 +22343,13 @@
       <c r="B4" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C4" s="36">
-        <v>0.2965714285714286</v>
+      <c r="C4" s="34">
+        <v>0.32346666666666662</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>1233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -21383,3008 +22359,353 @@
       <c r="B5" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C5" s="36">
-        <v>0.52638750000000001</v>
+      <c r="C5" s="34">
+        <v>0.41017500000000001</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>1237</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C6" s="36">
-        <v>0.53559090909090912</v>
+      <c r="C6" s="34">
+        <v>0.4949181818181817</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
-        <v>1241</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C7" s="36">
-        <v>0.44880000000000003</v>
+      <c r="C7" s="34">
+        <v>0.60645000000000004</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C8" s="36">
-        <v>0.55740000000000001</v>
+      <c r="C8" s="34">
+        <v>0.73729333333333347</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33" t="s">
-        <v>1250</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C9" s="36">
-        <v>-0.34</v>
+      <c r="C9" s="34">
+        <v>0.56624399999999997</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>1245</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>1222</v>
+        <v>1248</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C10" s="36">
-        <v>0.73119999999999996</v>
+      <c r="C10" s="34">
+        <v>0.64859999999999995</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>1226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C11" s="36">
-        <v>0.43230000000000002</v>
+      <c r="C11" s="34">
+        <v>0.37858214285714281</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33" t="s">
-        <v>1230</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C12" s="36">
-        <v>0.23680000000000001</v>
+      <c r="C12" s="34">
+        <v>0.51652580645161283</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33" t="s">
-        <v>1234</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C13" s="36">
-        <v>0.14084545454545455</v>
+      <c r="C13" s="34">
+        <v>0.16494285714285714</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33" t="s">
-        <v>1238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C14" s="36">
-        <v>0.19470666666666669</v>
+      <c r="C14" s="34">
+        <v>0.47084666666666664</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>1242</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C15" s="36">
-        <v>0.23655454545454546</v>
+      <c r="C15" s="34">
+        <v>0.31811904761904758</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C16" s="36">
-        <v>1.1750000000000002E-2</v>
+      <c r="C16" s="34">
+        <v>0.67676363636363635</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>1227</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C17" s="36">
-        <v>0.89949999999999997</v>
+      <c r="C17" s="34">
+        <v>0.55409999999999993</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>1231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C18" s="36">
-        <v>0.44147499999999995</v>
+      <c r="C18" s="34">
+        <v>0.19637826086956514</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33" t="s">
-        <v>1235</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C19" s="36">
-        <v>0.38970000000000005</v>
+      <c r="C19" s="34">
+        <v>0.42484161490683231</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>1239</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C20" s="36">
-        <v>0.32346666666666662</v>
+      <c r="C20" s="34">
+        <v>0.38277218934911222</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33" t="s">
-        <v>250</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C21" s="36">
-        <v>0.70779999999999998</v>
+      <c r="C21" s="34">
+        <v>0.41346456692913375</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>1243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C22" s="36">
-        <v>0.63690000000000002</v>
+      <c r="C22" s="34">
+        <v>0.44140822784810113</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33" t="s">
-        <v>1251</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C23" s="36">
-        <v>0.92569999999999997</v>
+      <c r="C23" s="34">
+        <v>0.46712344827586177</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33" t="s">
-        <v>1247</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C24" s="36">
-        <v>0.19242499999999998</v>
+      <c r="C24" s="34">
+        <v>0.34457936507936499</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33" t="s">
-        <v>1228</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C25" s="36">
-        <v>0.3327</v>
+      <c r="C25" s="34">
+        <v>0.46936956521739115</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33" t="s">
-        <v>1232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="C26" s="36">
-        <v>0.79585000000000006</v>
+      <c r="C26" s="34">
+        <v>0.44262380952380959</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C27" s="36">
-        <v>0.34863999999999995</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C28" s="36">
-        <v>0.41017500000000001</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C29" s="36">
-        <v>0.85909999999999997</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C30" s="36">
-        <v>0.31345000000000001</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C31" s="36">
-        <v>0.62997499999999995</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C32" s="36">
-        <v>0.56448888888888893</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C33" s="36">
-        <v>0.58287999999999995</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C34" s="36">
-        <v>0.6784095238095238</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C35" s="36">
-        <v>0.4949181818181817</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C36" s="36">
-        <v>0.8584750000000001</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C37" s="36">
-        <v>0.1847125</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C38" s="36">
-        <v>0.28343333333333337</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C39" s="36">
-        <v>0.59241333333333335</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C40" s="36">
-        <v>0.60068620689655172</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C41" s="36">
-        <v>0.45534193548387092</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C42" s="36">
-        <v>0.60645000000000004</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C43" s="36">
-        <v>0.77106666666666668</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C44" s="36">
-        <v>0.42135</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C45" s="36">
-        <v>0.45825454545454547</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C46" s="36">
-        <v>-6.888333333333331E-2</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C47" s="36">
-        <v>0.47180714285714292</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C48" s="36">
-        <v>0.64352666666666658</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C49" s="36">
-        <v>0.73729333333333347</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C50" s="36">
-        <v>0.52980000000000005</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C51" s="36">
-        <v>0.55912499999999998</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C52" s="36">
-        <v>0.39807777777777775</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C53" s="36">
-        <v>0.45274000000000003</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C54" s="36">
-        <v>0.68043749999999992</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C55" s="36">
-        <v>0.78056000000000003</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C56" s="36">
-        <v>0.80935454545454533</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C57" s="36">
-        <v>0.56624399999999997</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C58" s="36">
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C59" s="36">
-        <v>-0.81100000000000005</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C60" s="36">
-        <v>0.47935000000000005</v>
-      </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C61" s="36">
-        <v>-0.71840000000000004</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C62" s="36">
-        <v>-0.14030000000000001</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C63" s="36">
-        <v>0</v>
-      </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C64" s="36">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C65" s="36">
-        <v>0.33456000000000002</v>
-      </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C66" s="36">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C67" s="36">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C68" s="36">
-        <v>0.25501666666666667</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C69" s="36">
-        <v>0.79085000000000005</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C70" s="36">
-        <v>0.4582</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C71" s="36">
-        <v>0.32083043478260875</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C72" s="36">
-        <v>0.37858214285714281</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C73" s="36">
-        <v>0.78739999999999999</v>
-      </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C74" s="36">
-        <v>0.22919999999999999</v>
-      </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C75" s="36">
-        <v>-0.10338</v>
-      </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C76" s="36">
-        <v>0.68332000000000004</v>
-      </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C77" s="36">
-        <v>0.18568000000000001</v>
-      </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C78" s="36">
-        <v>0.27538999999999997</v>
-      </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C79" s="36">
-        <v>0.41913809523809531</v>
-      </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C80" s="36">
-        <v>0.51652580645161283</v>
-      </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C81" s="36">
-        <v>0.15806666666666669</v>
-      </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C82" s="36">
-        <v>-0.15125</v>
-      </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C83" s="36">
-        <v>0.40189999999999998</v>
-      </c>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C84" s="36">
-        <v>9.5814285714285727E-2</v>
-      </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C85" s="36">
-        <v>0.71555999999999997</v>
-      </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C86" s="36">
-        <v>0.39195833333333324</v>
-      </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C87" s="36">
-        <v>0.53431249999999997</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C88" s="36">
-        <v>0.16494285714285714</v>
-      </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C89" s="36">
-        <v>0.3478</v>
-      </c>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C90" s="36">
-        <v>0.91490000000000005</v>
-      </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C91" s="36">
-        <v>-0.26842500000000002</v>
-      </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C92" s="36">
-        <v>0.31885833333333335</v>
-      </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C93" s="36">
-        <v>0.47084666666666664</v>
-      </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C94" s="36">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C95" s="36">
-        <v>0.75613333333333321</v>
-      </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C96" s="36">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C97" s="36">
-        <v>0.6048</v>
-      </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C98" s="36">
-        <v>0.51897000000000004</v>
-      </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C99" s="36">
-        <v>0.376525</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C100" s="36">
-        <v>0.41460624999999995</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C101" s="36">
-        <v>0.31811904761904758</v>
-      </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C102" s="36">
-        <v>0.94450000000000001</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C103" s="36">
-        <v>0.38099999999999989</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C104" s="36">
-        <v>0.49222727272727274</v>
-      </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C105" s="36">
-        <v>0.39371111111111112</v>
-      </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C106" s="36">
-        <v>0.43861249999999996</v>
-      </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C107" s="36">
-        <v>0.49264545454545439</v>
-      </c>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C108" s="36">
-        <v>0.67676363636363635</v>
-      </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C109" s="36">
-        <v>4.3250000000000011E-2</v>
-      </c>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C110" s="36">
-        <v>0.51060000000000005</v>
-      </c>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C111" s="36">
-        <v>0.46900000000000003</v>
-      </c>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C112" s="36">
-        <v>0.14393333333333336</v>
-      </c>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C113" s="36">
-        <v>0.48752499999999999</v>
-      </c>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C114" s="36">
-        <v>0.24299285714285715</v>
-      </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C115" s="36">
-        <v>0.55409999999999993</v>
-      </c>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C116" s="36">
-        <v>0.48613333333333331</v>
-      </c>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C117" s="36">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C118" s="36">
-        <v>0.92235</v>
-      </c>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C119" s="36">
-        <v>0.2802</v>
-      </c>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C120" s="36">
-        <v>0.42149999999999999</v>
-      </c>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C121" s="36">
-        <v>0.57425000000000004</v>
-      </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C122" s="36">
-        <v>0.65915000000000001</v>
-      </c>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C123" s="36">
-        <v>0.18184444444444442</v>
-      </c>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C124" s="36">
-        <v>0.39554615384615377</v>
-      </c>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C125" s="36">
-        <v>0.19637826086956514</v>
-      </c>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C126" s="36">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C127" s="36">
-        <v>0.65801562499999999</v>
-      </c>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C128" s="36">
-        <v>0.2382064516129033</v>
-      </c>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C129" s="36">
-        <v>0.49961585365853639</v>
-      </c>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C130" s="36">
-        <v>0.43627613636363649</v>
-      </c>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C131" s="36">
-        <v>0.40906666666666647</v>
-      </c>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C132" s="36">
-        <v>0.42484161490683231</v>
-      </c>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C133" s="36">
-        <v>0.58472500000000005</v>
-      </c>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C134" s="36">
-        <v>0.49665641025641022</v>
-      </c>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C135" s="36">
-        <v>0.50104047619047631</v>
-      </c>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C136" s="36">
-        <v>0.49832916666666666</v>
-      </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C137" s="36">
-        <v>0.42657168141592905</v>
-      </c>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C138" s="36">
-        <v>0.47187751937984479</v>
-      </c>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C139" s="36">
-        <v>0.38277218934911222</v>
-      </c>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C140" s="36">
-        <v>0.37266521739130432</v>
-      </c>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C141" s="36">
-        <v>0.40025641025641023</v>
-      </c>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C142" s="36">
-        <v>0.38212173913043473</v>
-      </c>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C143" s="36">
-        <v>0.4104068493150686</v>
-      </c>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C144" s="36">
-        <v>0.49281543209876516</v>
-      </c>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B145" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C145" s="36">
-        <v>0.41346456692913375</v>
-      </c>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C146" s="36">
-        <v>0.27837407407407411</v>
-      </c>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B147" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C147" s="36">
-        <v>0.79059999999999997</v>
-      </c>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C148" s="36">
-        <v>0.46759999999999996</v>
-      </c>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C149" s="36">
-        <v>0.36229999999999996</v>
-      </c>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C150" s="36">
-        <v>0.38613636363636367</v>
-      </c>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C151" s="36">
-        <v>0.58510740740740741</v>
-      </c>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B152" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C152" s="36">
-        <v>0.39048421052631571</v>
-      </c>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B153" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C153" s="36">
-        <v>0.47034032258064518</v>
-      </c>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B154" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C154" s="36">
-        <v>0.44140822784810113</v>
-      </c>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C155" s="36">
-        <v>0.47013749999999999</v>
-      </c>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C156" s="36">
-        <v>0.44599629629629628</v>
-      </c>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C157" s="36">
-        <v>0.42913225806451605</v>
-      </c>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C158" s="36">
-        <v>0.3068392857142857</v>
-      </c>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B159" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C159" s="36">
-        <v>0.35330909090909096</v>
-      </c>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B160" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C160" s="36">
-        <v>0.41437916666666674</v>
-      </c>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C161" s="36">
-        <v>0.47056190476190451</v>
-      </c>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C162" s="36">
-        <v>0.38275193798449614</v>
-      </c>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B163" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C163" s="36">
-        <v>0.46712344827586177</v>
-      </c>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C164" s="36">
-        <v>0.61798124999999993</v>
-      </c>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B165" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C165" s="36">
-        <v>0.64228750000000001</v>
-      </c>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B166" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C166" s="36">
-        <v>0.55832777777777765</v>
-      </c>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B167" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C167" s="36">
-        <v>0.30456666666666665</v>
-      </c>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B168" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C168" s="36">
-        <v>0.51418333333333333</v>
-      </c>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B169" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C169" s="36">
-        <v>0.21709523809523806</v>
-      </c>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B170" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C170" s="36">
-        <v>0.5516619047619048</v>
-      </c>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C171" s="36">
-        <v>0.34021274509803928</v>
-      </c>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B172" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C172" s="36">
-        <v>0.39649917355371894</v>
-      </c>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B173" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C173" s="36">
-        <v>0.34457936507936499</v>
-      </c>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C174" s="36">
-        <v>0.45777586206896542</v>
-      </c>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B175" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C175" s="36">
-        <v>0.65545833333333337</v>
-      </c>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B176" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C176" s="36">
-        <v>0.36708695652173917</v>
-      </c>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B177" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C177" s="36">
-        <v>0.38746999999999998</v>
-      </c>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B178" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C178" s="36">
-        <v>0.43243823529411768</v>
-      </c>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B179" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C179" s="36">
-        <v>0.41009230769230764</v>
-      </c>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B180" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C180" s="36">
-        <v>0.56274347826086957</v>
-      </c>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B181" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C181" s="36">
-        <v>0.4156441860465116</v>
-      </c>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B182" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C182" s="36">
-        <v>0.46936956521739115</v>
-      </c>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B183" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C183" s="36">
-        <v>0.2811833333333334</v>
-      </c>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B184" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C184" s="36">
-        <v>0.50857446808510642</v>
-      </c>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B185" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C185" s="36">
-        <v>0.52580500000000008</v>
-      </c>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B186" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C186" s="36">
-        <v>0.42874761904761916</v>
-      </c>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B187" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C187" s="36">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B188" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C188" s="36">
-        <v>0.53633478260869549</v>
-      </c>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B189" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C189" s="36">
-        <v>0.47727499999999995</v>
-      </c>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B190" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C190" s="36">
-        <v>0.5669777777777778</v>
-      </c>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B191" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C191" s="36">
-        <v>0.45992956521739126</v>
-      </c>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="33" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B192" s="33" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C192" s="36">
-        <v>0.44262380952380959</v>
-      </c>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:F26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33616,12 +31937,12 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>1162</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
